--- a/tests/test1/d30/N, 0.5.xlsx
+++ b/tests/test1/d30/N, 0.5.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -532,13 +532,13 @@
         <v>359.1179738270162</v>
       </c>
       <c r="F2" t="n">
-        <v>23.08226237061823</v>
+        <v>23.0822623706169</v>
       </c>
       <c r="G2" t="n">
-        <v>89.16576141315326</v>
+        <v>89.16576141315102</v>
       </c>
       <c r="H2" t="n">
-        <v>9.203279895034528</v>
+        <v>9.203279895033972</v>
       </c>
       <c r="I2" t="n">
         <v>30.54452539071436</v>
@@ -547,16 +547,16 @@
         <v>29.33066725219249</v>
       </c>
       <c r="K2" t="n">
-        <v>29.89706734273463</v>
+        <v>29.89706734273437</v>
       </c>
       <c r="L2" t="n">
-        <v>23.78986228162897</v>
+        <v>23.78986228162785</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4615619122245616</v>
+        <v>0.4615619122246076</v>
       </c>
       <c r="N2" t="n">
-        <v>1.230726975967329</v>
+        <v>1.230726975967632</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.000595799999999258</v>
+        <v>0.0003022000000001412</v>
       </c>
     </row>
     <row r="3">
@@ -584,13 +584,13 @@
         <v>359.1878273181684</v>
       </c>
       <c r="F3" t="n">
-        <v>21.83120616998768</v>
+        <v>21.83120616998761</v>
       </c>
       <c r="G3" t="n">
-        <v>65.54464316861126</v>
+        <v>65.54464316860994</v>
       </c>
       <c r="H3" t="n">
-        <v>9.130521720659139</v>
+        <v>9.130521720659312</v>
       </c>
       <c r="I3" t="n">
         <v>25.33705432792731</v>
@@ -599,16 +599,16 @@
         <v>34.28275889914102</v>
       </c>
       <c r="K3" t="n">
-        <v>24.5236165637746</v>
+        <v>24.52361656377455</v>
       </c>
       <c r="L3" t="n">
-        <v>26.10329040174223</v>
+        <v>26.10329040174249</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4596764464452365</v>
+        <v>0.4596764464452305</v>
       </c>
       <c r="N3" t="n">
-        <v>1.378622805538467</v>
+        <v>1.378622805538465</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.00104960000000176</v>
+        <v>0.000229699999998445</v>
       </c>
     </row>
     <row r="4">
@@ -636,13 +636,13 @@
         <v>0.2083789237027319</v>
       </c>
       <c r="F4" t="n">
-        <v>25.35081909360057</v>
+        <v>25.35081909360045</v>
       </c>
       <c r="G4" t="n">
-        <v>143.4004291021345</v>
+        <v>143.4004291021382</v>
       </c>
       <c r="H4" t="n">
-        <v>2.90940524787402</v>
+        <v>2.90940524787417</v>
       </c>
       <c r="I4" t="n">
         <v>10.18789668310031</v>
@@ -651,16 +651,16 @@
         <v>28.62860242763599</v>
       </c>
       <c r="K4" t="n">
-        <v>9.524743813511241</v>
+        <v>9.524743813511215</v>
       </c>
       <c r="L4" t="n">
-        <v>20.21001834412735</v>
+        <v>20.21001834412693</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3405584820928321</v>
+        <v>0.3405584820928408</v>
       </c>
       <c r="N4" t="n">
-        <v>2.582229060584652</v>
+        <v>2.582229060584664</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.0003648999999938951</v>
+        <v>0.0002391999999957761</v>
       </c>
     </row>
     <row r="5">
@@ -688,13 +688,13 @@
         <v>359.1056857632848</v>
       </c>
       <c r="F5" t="n">
-        <v>21.95976681969126</v>
+        <v>21.95976681969325</v>
       </c>
       <c r="G5" t="n">
-        <v>89.07010290083829</v>
+        <v>89.07010290083781</v>
       </c>
       <c r="H5" t="n">
-        <v>8.514797037752233</v>
+        <v>8.514797037753352</v>
       </c>
       <c r="I5" t="n">
         <v>30.42186793534146</v>
@@ -703,16 +703,16 @@
         <v>29.21316117156715</v>
       </c>
       <c r="K5" t="n">
-        <v>29.51743599351401</v>
+        <v>29.51743599351426</v>
       </c>
       <c r="L5" t="n">
-        <v>22.41602363454133</v>
+        <v>22.4160236345438</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5520207422189227</v>
+        <v>0.5520207422188137</v>
       </c>
       <c r="N5" t="n">
-        <v>1.514334437411776</v>
+        <v>1.514334437411339</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.0005621000000033405</v>
+        <v>0.0002045000000023833</v>
       </c>
     </row>
     <row r="6">
@@ -740,13 +740,13 @@
         <v>359.9747191464285</v>
       </c>
       <c r="F6" t="n">
-        <v>26.87680723529175</v>
+        <v>26.87680723529186</v>
       </c>
       <c r="G6" t="n">
-        <v>176.9064025432636</v>
+        <v>176.9064025432632</v>
       </c>
       <c r="H6" t="n">
-        <v>9.278341178641272</v>
+        <v>9.278341178641021</v>
       </c>
       <c r="I6" t="n">
         <v>8.399717828514826</v>
@@ -755,16 +755,16 @@
         <v>16.13813378453141</v>
       </c>
       <c r="K6" t="n">
-        <v>7.625106382163195</v>
+        <v>7.625106382163246</v>
       </c>
       <c r="L6" t="n">
-        <v>13.25990909483631</v>
+        <v>13.25990909483673</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2831837255312883</v>
+        <v>0.2831837255312792</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6373043422169038</v>
+        <v>0.6373043422169001</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.0006170000000054188</v>
+        <v>0.0002240000000028886</v>
       </c>
     </row>
     <row r="7">
@@ -792,13 +792,13 @@
         <v>359.7793862565575</v>
       </c>
       <c r="F7" t="n">
-        <v>22.65282264790762</v>
+        <v>22.652822647907</v>
       </c>
       <c r="G7" t="n">
-        <v>37.67896644708243</v>
+        <v>37.67896644708217</v>
       </c>
       <c r="H7" t="n">
-        <v>9.636070115558192</v>
+        <v>9.636070115557825</v>
       </c>
       <c r="I7" t="n">
         <v>16.18089193105339</v>
@@ -807,16 +807,16 @@
         <v>41.39368334310793</v>
       </c>
       <c r="K7" t="n">
-        <v>15.60307468945632</v>
+        <v>15.60307468945623</v>
       </c>
       <c r="L7" t="n">
-        <v>30.30481918132723</v>
+        <v>30.30481918132624</v>
       </c>
       <c r="M7" t="n">
-        <v>0.343329220406244</v>
+        <v>0.3433292204062644</v>
       </c>
       <c r="N7" t="n">
-        <v>1.356676586602019</v>
+        <v>1.356676586602155</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.0006338999999968564</v>
+        <v>0.0004601000000050703</v>
       </c>
     </row>
     <row r="8">
@@ -844,13 +844,13 @@
         <v>0.1558918367437626</v>
       </c>
       <c r="F8" t="n">
-        <v>26.18963234418359</v>
+        <v>26.18963234418439</v>
       </c>
       <c r="G8" t="n">
-        <v>170.546275566402</v>
+        <v>170.5462755664012</v>
       </c>
       <c r="H8" t="n">
-        <v>7.632688227371811</v>
+        <v>7.632688227372002</v>
       </c>
       <c r="I8" t="n">
         <v>11.43325161517759</v>
@@ -859,16 +859,16 @@
         <v>19.8676358558312</v>
       </c>
       <c r="K8" t="n">
-        <v>10.69647985190437</v>
+        <v>10.69647985190457</v>
       </c>
       <c r="L8" t="n">
-        <v>14.79542464093663</v>
+        <v>14.79542464093725</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2843144200691788</v>
+        <v>0.2843144200691536</v>
       </c>
       <c r="N8" t="n">
-        <v>1.087779394688176</v>
+        <v>1.087779394688123</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.0004855999999975324</v>
+        <v>0.0002324000000015758</v>
       </c>
     </row>
     <row r="9">
@@ -896,13 +896,13 @@
         <v>359.1547371480999</v>
       </c>
       <c r="F9" t="n">
-        <v>19.04693421691016</v>
+        <v>19.04693421690997</v>
       </c>
       <c r="G9" t="n">
-        <v>8.339002290130987</v>
+        <v>8.339002290130885</v>
       </c>
       <c r="H9" t="n">
-        <v>14.37345452202489</v>
+        <v>14.37345452202469</v>
       </c>
       <c r="I9" t="n">
         <v>6.405887000684803</v>
@@ -911,16 +911,16 @@
         <v>42.05289827013716</v>
       </c>
       <c r="K9" t="n">
-        <v>5.780936410928678</v>
+        <v>5.78093641092864</v>
       </c>
       <c r="L9" t="n">
-        <v>33.66549832994387</v>
+        <v>33.66549832994346</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4314751446614796</v>
+        <v>0.4314751446614891</v>
       </c>
       <c r="N9" t="n">
-        <v>1.031045914138188</v>
+        <v>1.031045914138181</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.0006461999999984869</v>
+        <v>0.0002149999999971897</v>
       </c>
     </row>
     <row r="10">
@@ -948,13 +948,13 @@
         <v>359.9543976416901</v>
       </c>
       <c r="F10" t="n">
-        <v>25.04113293451806</v>
+        <v>25.04113293451557</v>
       </c>
       <c r="G10" t="n">
-        <v>159.4135010799127</v>
+        <v>159.4135010799141</v>
       </c>
       <c r="H10" t="n">
-        <v>11.96409598559472</v>
+        <v>11.96409598559337</v>
       </c>
       <c r="I10" t="n">
         <v>35.40628251682527</v>
@@ -963,16 +963,16 @@
         <v>13.7482000025743</v>
       </c>
       <c r="K10" t="n">
-        <v>34.602704254724</v>
+        <v>34.60270425472346</v>
       </c>
       <c r="L10" t="n">
-        <v>10.91549121862625</v>
+        <v>10.91549121862485</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3629434447272187</v>
+        <v>0.3629434447273215</v>
       </c>
       <c r="N10" t="n">
-        <v>1.053707419866094</v>
+        <v>1.053707419866662</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.0007349999999988199</v>
+        <v>0.0002088999999969587</v>
       </c>
     </row>
     <row r="11">
@@ -1000,13 +1000,13 @@
         <v>359.9994457226439</v>
       </c>
       <c r="F11" t="n">
-        <v>25.38887577822768</v>
+        <v>25.38887577822736</v>
       </c>
       <c r="G11" t="n">
-        <v>354.2017519238339</v>
+        <v>354.2017519238352</v>
       </c>
       <c r="H11" t="n">
-        <v>3.61521565720459</v>
+        <v>3.615215657205238</v>
       </c>
       <c r="I11" t="n">
         <v>2.283217732932411</v>
@@ -1015,16 +1015,16 @@
         <v>38.23523664126705</v>
       </c>
       <c r="K11" t="n">
-        <v>1.547752854312709</v>
+        <v>1.547752854312734</v>
       </c>
       <c r="L11" t="n">
-        <v>27.09846326489947</v>
+        <v>27.09846326489994</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3424334368545654</v>
+        <v>0.3424334368545623</v>
       </c>
       <c r="N11" t="n">
-        <v>2.359233130518273</v>
+        <v>2.359233130518032</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.0005342999999982112</v>
+        <v>0.0002535999999935257</v>
       </c>
     </row>
     <row r="12">
@@ -1052,13 +1052,13 @@
         <v>359.3342067479352</v>
       </c>
       <c r="F12" t="n">
-        <v>24.05976214596467</v>
+        <v>24.0597621459641</v>
       </c>
       <c r="G12" t="n">
-        <v>52.42881364977219</v>
+        <v>52.42881364976763</v>
       </c>
       <c r="H12" t="n">
-        <v>2.640201260816464</v>
+        <v>2.640201260816531</v>
       </c>
       <c r="I12" t="n">
         <v>8.689710829394025</v>
@@ -1067,16 +1067,16 @@
         <v>24.73231265962071</v>
       </c>
       <c r="K12" t="n">
-        <v>8.281220882450706</v>
+        <v>8.281220882450617</v>
       </c>
       <c r="L12" t="n">
-        <v>23.61988327666542</v>
+        <v>23.6198832766651</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3273954602944862</v>
+        <v>0.3273954602944993</v>
       </c>
       <c r="N12" t="n">
-        <v>2.805775170403528</v>
+        <v>2.805775170403634</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.0004874000000043566</v>
+        <v>0.0002539999999982001</v>
       </c>
     </row>
     <row r="13">
@@ -1104,13 +1104,13 @@
         <v>359.1252726293474</v>
       </c>
       <c r="F13" t="n">
-        <v>20.02137913097089</v>
+        <v>20.02137913097065</v>
       </c>
       <c r="G13" t="n">
-        <v>9.671486364477554</v>
+        <v>9.671486364477312</v>
       </c>
       <c r="H13" t="n">
-        <v>8.99539535556953</v>
+        <v>8.995395355569542</v>
       </c>
       <c r="I13" t="n">
         <v>6.055750253915085</v>
@@ -1119,16 +1119,16 @@
         <v>30.83028323690103</v>
       </c>
       <c r="K13" t="n">
-        <v>5.455373139015611</v>
+        <v>5.455373139015573</v>
       </c>
       <c r="L13" t="n">
-        <v>28.17133881105293</v>
+        <v>28.17133881105272</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4206107929927276</v>
+        <v>0.4206107929927348</v>
       </c>
       <c r="N13" t="n">
-        <v>5.317669381929352</v>
+        <v>5.317669381929385</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.0005403999999984421</v>
+        <v>0.0002105000000014456</v>
       </c>
     </row>
     <row r="14">
@@ -1156,13 +1156,13 @@
         <v>359.763507084255</v>
       </c>
       <c r="F14" t="n">
-        <v>22.7288134508769</v>
+        <v>22.72881345087679</v>
       </c>
       <c r="G14" t="n">
-        <v>23.88646181742492</v>
+        <v>23.88646181742486</v>
       </c>
       <c r="H14" t="n">
-        <v>9.298668756114635</v>
+        <v>9.298668756114573</v>
       </c>
       <c r="I14" t="n">
         <v>11.04565230035812</v>
@@ -1171,16 +1171,16 @@
         <v>40.75574104258677</v>
       </c>
       <c r="K14" t="n">
-        <v>10.45690721213328</v>
+        <v>10.45690721213327</v>
       </c>
       <c r="L14" t="n">
-        <v>30.82692193772779</v>
+        <v>30.8269219377276</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3706292188418113</v>
+        <v>0.3706292188418154</v>
       </c>
       <c r="N14" t="n">
-        <v>1.1930946448996</v>
+        <v>1.193094644899623</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.00055799999999806</v>
+        <v>0.0001980999999986466</v>
       </c>
     </row>
     <row r="15">
@@ -1208,13 +1208,13 @@
         <v>0.3561953310252952</v>
       </c>
       <c r="F15" t="n">
-        <v>25.65853168970597</v>
+        <v>25.65853168970604</v>
       </c>
       <c r="G15" t="n">
-        <v>160.4836616308303</v>
+        <v>160.4836616308296</v>
       </c>
       <c r="H15" t="n">
-        <v>6.381950598507288</v>
+        <v>6.381950598507195</v>
       </c>
       <c r="I15" t="n">
         <v>14.48335361376716</v>
@@ -1226,13 +1226,13 @@
         <v>13.80631201742399</v>
       </c>
       <c r="L15" t="n">
-        <v>16.29410221284304</v>
+        <v>16.29410221284326</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2855705934277791</v>
+        <v>0.2855705934277756</v>
       </c>
       <c r="N15" t="n">
-        <v>1.380643168348315</v>
+        <v>1.380643168348242</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.0005015999999997689</v>
+        <v>0.0001937999999981344</v>
       </c>
     </row>
     <row r="16">
@@ -1260,13 +1260,13 @@
         <v>359.2243304443735</v>
       </c>
       <c r="F16" t="n">
-        <v>22.0478409420348</v>
+        <v>22.04784094204001</v>
       </c>
       <c r="G16" t="n">
-        <v>82.83296684864015</v>
+        <v>82.83296684864149</v>
       </c>
       <c r="H16" t="n">
-        <v>9.319346713721801</v>
+        <v>9.319346713724732</v>
       </c>
       <c r="I16" t="n">
         <v>30.72180748031497</v>
@@ -1275,16 +1275,16 @@
         <v>31.10359375652314</v>
       </c>
       <c r="K16" t="n">
-        <v>29.8856948536322</v>
+        <v>29.88569485363292</v>
       </c>
       <c r="L16" t="n">
-        <v>24.01867806046106</v>
+        <v>24.01867806046745</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5103241447113349</v>
+        <v>0.5103241447110866</v>
       </c>
       <c r="N16" t="n">
-        <v>1.433016636165221</v>
+        <v>1.433016636164071</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.0005529000000024098</v>
+        <v>0.000191499999999678</v>
       </c>
     </row>
     <row r="17">
@@ -1312,13 +1312,13 @@
         <v>0.156164240771768</v>
       </c>
       <c r="F17" t="n">
-        <v>25.82551001365957</v>
+        <v>25.82551001366063</v>
       </c>
       <c r="G17" t="n">
-        <v>167.3614014242767</v>
+        <v>167.3614014242751</v>
       </c>
       <c r="H17" t="n">
-        <v>5.825788089851657</v>
+        <v>5.825788089851778</v>
       </c>
       <c r="I17" t="n">
         <v>10.34172524231339</v>
@@ -1327,16 +1327,16 @@
         <v>22.25264734341951</v>
       </c>
       <c r="K17" t="n">
-        <v>9.595679404000521</v>
+        <v>9.595679404000736</v>
       </c>
       <c r="L17" t="n">
-        <v>16.62003684544367</v>
+        <v>16.62003684544465</v>
       </c>
       <c r="M17" t="n">
-        <v>0.313845372144729</v>
+        <v>0.3138453721446928</v>
       </c>
       <c r="N17" t="n">
-        <v>1.302572739022536</v>
+        <v>1.302572739022424</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.0005482999999983917</v>
+        <v>0.0002433000000010566</v>
       </c>
     </row>
     <row r="18">
@@ -1364,13 +1364,13 @@
         <v>359.9360256394331</v>
       </c>
       <c r="F18" t="n">
-        <v>23.59521277855601</v>
+        <v>23.5952127785558</v>
       </c>
       <c r="G18" t="n">
-        <v>40.26226835079473</v>
+        <v>40.2622683507934</v>
       </c>
       <c r="H18" t="n">
-        <v>6.166178758779885</v>
+        <v>6.166178758780044</v>
       </c>
       <c r="I18" t="n">
         <v>13.10617957966178</v>
@@ -1379,16 +1379,16 @@
         <v>36.84819385366504</v>
       </c>
       <c r="K18" t="n">
-        <v>12.54834264802048</v>
+        <v>12.54834264802045</v>
       </c>
       <c r="L18" t="n">
-        <v>27.27684606351326</v>
+        <v>27.2768460635133</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2689753927513371</v>
+        <v>0.2689753927513383</v>
       </c>
       <c r="N18" t="n">
-        <v>1.412611559709676</v>
+        <v>1.412611559709605</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0003950999999986493</v>
+        <v>0.0002038000000013085</v>
       </c>
     </row>
     <row r="19">
@@ -1416,13 +1416,13 @@
         <v>359.8618670549893</v>
       </c>
       <c r="F19" t="n">
-        <v>22.92393290920666</v>
+        <v>22.92393290920655</v>
       </c>
       <c r="G19" t="n">
-        <v>50.81463725147161</v>
+        <v>50.814637251473</v>
       </c>
       <c r="H19" t="n">
-        <v>6.523678865625823</v>
+        <v>6.523678865625556</v>
       </c>
       <c r="I19" t="n">
         <v>16.55986375037994</v>
@@ -1434,13 +1434,13 @@
         <v>15.87758661400545</v>
       </c>
       <c r="L19" t="n">
-        <v>26.25542771043497</v>
+        <v>26.2554277104345</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3476674814494269</v>
+        <v>0.3476674814494365</v>
       </c>
       <c r="N19" t="n">
-        <v>1.423222784937475</v>
+        <v>1.423222784937534</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0006912000000056651</v>
+        <v>0.0001949000000038836</v>
       </c>
     </row>
     <row r="20">
@@ -1468,13 +1468,13 @@
         <v>359.9602857780969</v>
       </c>
       <c r="F20" t="n">
-        <v>24.1670990266684</v>
+        <v>24.16709902666742</v>
       </c>
       <c r="G20" t="n">
-        <v>121.8556829037356</v>
+        <v>121.8556829037346</v>
       </c>
       <c r="H20" t="n">
-        <v>6.838770741359659</v>
+        <v>6.838770741359237</v>
       </c>
       <c r="I20" t="n">
         <v>25.82629642817216</v>
@@ -1483,16 +1483,16 @@
         <v>24.92281376836615</v>
       </c>
       <c r="K20" t="n">
-        <v>25.25797210164908</v>
+        <v>25.25797210164886</v>
       </c>
       <c r="L20" t="n">
-        <v>19.03975992424396</v>
+        <v>19.03975992424326</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3342694431159947</v>
+        <v>0.3342694431160235</v>
       </c>
       <c r="N20" t="n">
-        <v>1.269261796626017</v>
+        <v>1.269261796626207</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.0005695999999986157</v>
+        <v>0.0001931999999982281</v>
       </c>
     </row>
     <row r="21">
@@ -1520,13 +1520,13 @@
         <v>359.8894983686589</v>
       </c>
       <c r="F21" t="n">
-        <v>22.90485901260496</v>
+        <v>22.90485901260492</v>
       </c>
       <c r="G21" t="n">
-        <v>14.91947905647196</v>
+        <v>14.91947905647191</v>
       </c>
       <c r="H21" t="n">
-        <v>8.389861622865437</v>
+        <v>8.38986162286546</v>
       </c>
       <c r="I21" t="n">
         <v>7.677292830157072</v>
@@ -1544,7 +1544,7 @@
         <v>0.3314166237514307</v>
       </c>
       <c r="N21" t="n">
-        <v>1.447458896165883</v>
+        <v>1.44745889616588</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.0005242000000009739</v>
+        <v>0.0001900999999975284</v>
       </c>
     </row>
     <row r="22">
@@ -1572,13 +1572,13 @@
         <v>359.5580534436913</v>
       </c>
       <c r="F22" t="n">
-        <v>23.21906794059796</v>
+        <v>23.21906794058886</v>
       </c>
       <c r="G22" t="n">
-        <v>102.7727374272965</v>
+        <v>102.7727374272992</v>
       </c>
       <c r="H22" t="n">
-        <v>10.26983998784463</v>
+        <v>10.26983998783915</v>
       </c>
       <c r="I22" t="n">
         <v>36.73913688060643</v>
@@ -1587,16 +1587,16 @@
         <v>28.53374266718802</v>
       </c>
       <c r="K22" t="n">
-        <v>36.04509141409247</v>
+        <v>36.04509141409146</v>
       </c>
       <c r="L22" t="n">
-        <v>22.11034582862095</v>
+        <v>22.11034582861051</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3598897166952543</v>
+        <v>0.3598897166955623</v>
       </c>
       <c r="N22" t="n">
-        <v>1.261790192748443</v>
+        <v>1.261790192750235</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.0006691999999972609</v>
+        <v>0.0002519999999961442</v>
       </c>
     </row>
     <row r="23">
@@ -1624,13 +1624,13 @@
         <v>0.02598212475276744</v>
       </c>
       <c r="F23" t="n">
-        <v>25.99707822921008</v>
+        <v>25.99707822921014</v>
       </c>
       <c r="G23" t="n">
-        <v>6.432983263770215</v>
+        <v>6.432983263770583</v>
       </c>
       <c r="H23" t="n">
-        <v>2.235342208045902</v>
+        <v>2.235342208045571</v>
       </c>
       <c r="I23" t="n">
         <v>3.841879221367843</v>
@@ -1639,16 +1639,16 @@
         <v>35.13499912840096</v>
       </c>
       <c r="K23" t="n">
-        <v>3.258268042258488</v>
+        <v>3.258268042258462</v>
       </c>
       <c r="L23" t="n">
-        <v>26.088406613301</v>
+        <v>26.08840661330066</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3332199912440831</v>
+        <v>0.3332199912440873</v>
       </c>
       <c r="N23" t="n">
-        <v>2.269650273983406</v>
+        <v>2.269650273983541</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.0008714000000011879</v>
+        <v>0.0002156000000042013</v>
       </c>
     </row>
     <row r="24">
@@ -1676,13 +1676,13 @@
         <v>0.04597495993259098</v>
       </c>
       <c r="F24" t="n">
-        <v>23.7217759902772</v>
+        <v>23.72177599027742</v>
       </c>
       <c r="G24" t="n">
-        <v>45.85564248766029</v>
+        <v>45.85564248765699</v>
       </c>
       <c r="H24" t="n">
-        <v>4.386175697389828</v>
+        <v>4.386175697390279</v>
       </c>
       <c r="I24" t="n">
         <v>11.9862826901246</v>
@@ -1691,16 +1691,16 @@
         <v>36.5366037130493</v>
       </c>
       <c r="K24" t="n">
-        <v>11.33707320795471</v>
+        <v>11.33707320795474</v>
       </c>
       <c r="L24" t="n">
-        <v>25.26416888272671</v>
+        <v>25.26416888272754</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3773981903194689</v>
+        <v>0.3773981903194515</v>
       </c>
       <c r="N24" t="n">
-        <v>2.135941893268513</v>
+        <v>2.135941893268257</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.0007254000000003202</v>
+        <v>0.0002080000000006521</v>
       </c>
     </row>
     <row r="25">
@@ -1728,13 +1728,13 @@
         <v>359.6665059718233</v>
       </c>
       <c r="F25" t="n">
-        <v>22.97356764302853</v>
+        <v>22.97356764301523</v>
       </c>
       <c r="G25" t="n">
-        <v>90.60419350941477</v>
+        <v>90.60419350941497</v>
       </c>
       <c r="H25" t="n">
-        <v>10.61050219584228</v>
+        <v>10.61050219583404</v>
       </c>
       <c r="I25" t="n">
         <v>34.79974963322789</v>
@@ -1743,16 +1743,16 @@
         <v>32.20772710025805</v>
       </c>
       <c r="K25" t="n">
-        <v>34.24919749386852</v>
+        <v>34.24919749386699</v>
       </c>
       <c r="L25" t="n">
-        <v>24.46480646066308</v>
+        <v>24.46480646064661</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3289813438159266</v>
+        <v>0.3289813438163343</v>
       </c>
       <c r="N25" t="n">
-        <v>1.254274246619729</v>
+        <v>1.254274246622394</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.0005219000000025176</v>
+        <v>0.0002203000000022826</v>
       </c>
     </row>
     <row r="26">
@@ -1780,13 +1780,13 @@
         <v>359.3353939136754</v>
       </c>
       <c r="F26" t="n">
-        <v>25.48374626191925</v>
+        <v>25.48374626191911</v>
       </c>
       <c r="G26" t="n">
-        <v>165.5693889467389</v>
+        <v>165.5693889467382</v>
       </c>
       <c r="H26" t="n">
-        <v>6.942781117942788</v>
+        <v>6.942781117942515</v>
       </c>
       <c r="I26" t="n">
         <v>11.78642545097189</v>
@@ -1795,16 +1795,16 @@
         <v>14.11601099751434</v>
       </c>
       <c r="K26" t="n">
-        <v>11.27885528319378</v>
+        <v>11.27885528319375</v>
       </c>
       <c r="L26" t="n">
-        <v>15.08859184276821</v>
+        <v>15.08859184276841</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3422280989041486</v>
+        <v>0.342228098904151</v>
       </c>
       <c r="N26" t="n">
-        <v>1.399245417609805</v>
+        <v>1.399245417609915</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.0003805999999997312</v>
+        <v>0.0002722000000048297</v>
       </c>
     </row>
     <row r="27">
@@ -1832,13 +1832,13 @@
         <v>359.8858634551669</v>
       </c>
       <c r="F27" t="n">
-        <v>25.8532772364306</v>
+        <v>25.85327723643102</v>
       </c>
       <c r="G27" t="n">
-        <v>158.7680927309052</v>
+        <v>158.7680927309043</v>
       </c>
       <c r="H27" t="n">
-        <v>8.478862984302435</v>
+        <v>8.478862984302475</v>
       </c>
       <c r="I27" t="n">
         <v>19.88592121432799</v>
@@ -1847,16 +1847,16 @@
         <v>17.42150158735378</v>
       </c>
       <c r="K27" t="n">
-        <v>19.25341570093343</v>
+        <v>19.25341570093349</v>
       </c>
       <c r="L27" t="n">
-        <v>14.56763617549353</v>
+        <v>14.56763617549399</v>
       </c>
       <c r="M27" t="n">
-        <v>0.3420447037935327</v>
+        <v>0.3420447037935175</v>
       </c>
       <c r="N27" t="n">
-        <v>0.8623851688650865</v>
+        <v>0.8623851688649948</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.0005584000000027345</v>
+        <v>0.0002391000000017129</v>
       </c>
     </row>
     <row r="28">
@@ -1884,13 +1884,13 @@
         <v>359.90200339417</v>
       </c>
       <c r="F28" t="n">
-        <v>23.533064534368</v>
+        <v>23.53306453436875</v>
       </c>
       <c r="G28" t="n">
-        <v>56.11205835635369</v>
+        <v>56.11205835635489</v>
       </c>
       <c r="H28" t="n">
-        <v>6.318107833068288</v>
+        <v>6.318107833068477</v>
       </c>
       <c r="I28" t="n">
         <v>16.99876366455218</v>
@@ -1899,16 +1899,16 @@
         <v>35.20863709983118</v>
       </c>
       <c r="K28" t="n">
-        <v>16.4497633659032</v>
+        <v>16.44976336590331</v>
       </c>
       <c r="L28" t="n">
-        <v>26.21712477739596</v>
+        <v>26.21712477739675</v>
       </c>
       <c r="M28" t="n">
-        <v>0.322910605765504</v>
+        <v>0.3229106057654852</v>
       </c>
       <c r="N28" t="n">
-        <v>1.36917751413296</v>
+        <v>1.369177514132873</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.0005366000000037729</v>
+        <v>0.0002028000000038332</v>
       </c>
     </row>
     <row r="29">
@@ -1936,13 +1936,13 @@
         <v>359.3571972923839</v>
       </c>
       <c r="F29" t="n">
-        <v>22.06115018816361</v>
+        <v>22.06115018815893</v>
       </c>
       <c r="G29" t="n">
-        <v>70.17670545051288</v>
+        <v>70.17670545051348</v>
       </c>
       <c r="H29" t="n">
-        <v>9.636852551992353</v>
+        <v>9.636852551989335</v>
       </c>
       <c r="I29" t="n">
         <v>27.47750858341173</v>
@@ -1951,16 +1951,16 @@
         <v>34.86118304053818</v>
       </c>
       <c r="K29" t="n">
-        <v>26.79877594733515</v>
+        <v>26.79877594733463</v>
       </c>
       <c r="L29" t="n">
-        <v>26.17654340905126</v>
+        <v>26.1765434090444</v>
       </c>
       <c r="M29" t="n">
-        <v>0.4293704968506243</v>
+        <v>0.4293704968508303</v>
       </c>
       <c r="N29" t="n">
-        <v>1.360332503774088</v>
+        <v>1.360332503775127</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.0005397000000044727</v>
+        <v>0.0001983000000009838</v>
       </c>
     </row>
     <row r="30">
@@ -1988,13 +1988,13 @@
         <v>359.776833811065</v>
       </c>
       <c r="F30" t="n">
-        <v>25.01434739637707</v>
+        <v>25.01434739637825</v>
       </c>
       <c r="G30" t="n">
-        <v>130.7462006554167</v>
+        <v>130.7462006554154</v>
       </c>
       <c r="H30" t="n">
-        <v>7.699292412557225</v>
+        <v>7.69929241255768</v>
       </c>
       <c r="I30" t="n">
         <v>26.83056082492117</v>
@@ -2003,16 +2003,16 @@
         <v>22.06038522110382</v>
       </c>
       <c r="K30" t="n">
-        <v>26.25342180696276</v>
+        <v>26.25342180696293</v>
       </c>
       <c r="L30" t="n">
-        <v>18.2498528414716</v>
+        <v>18.24985284147273</v>
       </c>
       <c r="M30" t="n">
-        <v>0.3111236747975588</v>
+        <v>0.3111236747975241</v>
       </c>
       <c r="N30" t="n">
-        <v>0.9668333281338904</v>
+        <v>0.9668333281336767</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.0005908999999988396</v>
+        <v>0.0001947000000015464</v>
       </c>
     </row>
     <row r="31">
@@ -2040,13 +2040,13 @@
         <v>0.2087410631522755</v>
       </c>
       <c r="F31" t="n">
-        <v>25.80580746361955</v>
+        <v>25.80580746361922</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4333204568221</v>
+        <v>167.4333204568237</v>
       </c>
       <c r="H31" t="n">
-        <v>6.804119051025862</v>
+        <v>6.804119051026116</v>
       </c>
       <c r="I31" t="n">
         <v>12.09819807108279</v>
@@ -2055,16 +2055,16 @@
         <v>20.83865222468982</v>
       </c>
       <c r="K31" t="n">
-        <v>11.29898614013828</v>
+        <v>11.29898614013821</v>
       </c>
       <c r="L31" t="n">
-        <v>15.52075599929069</v>
+        <v>15.52075599928999</v>
       </c>
       <c r="M31" t="n">
-        <v>0.3286195589318814</v>
+        <v>0.3286195589318994</v>
       </c>
       <c r="N31" t="n">
-        <v>1.074084026559485</v>
+        <v>1.074084026559693</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.0008230999999980781</v>
+        <v>0.000190599999996266</v>
       </c>
     </row>
     <row r="32">
@@ -2092,13 +2092,13 @@
         <v>0.6320263323882001</v>
       </c>
       <c r="F32" t="n">
-        <v>22.92754651753703</v>
+        <v>22.92754651753801</v>
       </c>
       <c r="G32" t="n">
-        <v>143.0985060299452</v>
+        <v>143.0985060299457</v>
       </c>
       <c r="H32" t="n">
-        <v>5.800843921651833</v>
+        <v>5.800843921652271</v>
       </c>
       <c r="I32" t="n">
         <v>21.74625583611728</v>
@@ -2107,16 +2107,16 @@
         <v>25.20335661415189</v>
       </c>
       <c r="K32" t="n">
-        <v>20.80880079572681</v>
+        <v>20.80880079572706</v>
       </c>
       <c r="L32" t="n">
-        <v>15.77207802317843</v>
+        <v>15.77207802317902</v>
       </c>
       <c r="M32" t="n">
-        <v>0.3637275826689563</v>
+        <v>0.3637275826689182</v>
       </c>
       <c r="N32" t="n">
-        <v>2.12086709375215</v>
+        <v>2.120867093751916</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.0003819000000007122</v>
+        <v>0.0002403999999955886</v>
       </c>
     </row>
     <row r="33">
@@ -2144,13 +2144,13 @@
         <v>0.2073786071257917</v>
       </c>
       <c r="F33" t="n">
-        <v>21.6549891273253</v>
+        <v>21.65498912732632</v>
       </c>
       <c r="G33" t="n">
-        <v>51.5086725952133</v>
+        <v>51.50867259521341</v>
       </c>
       <c r="H33" t="n">
-        <v>8.788298932827924</v>
+        <v>8.788298932828559</v>
       </c>
       <c r="I33" t="n">
         <v>21.14835897576047</v>
@@ -2159,16 +2159,16 @@
         <v>40.97552889614518</v>
       </c>
       <c r="K33" t="n">
-        <v>20.36418823476048</v>
+        <v>20.36418823476062</v>
       </c>
       <c r="L33" t="n">
-        <v>27.30907518038001</v>
+        <v>27.3090751803816</v>
       </c>
       <c r="M33" t="n">
-        <v>0.3558460165355142</v>
+        <v>0.3558460165354768</v>
       </c>
       <c r="N33" t="n">
-        <v>1.736886358844974</v>
+        <v>1.736886358844774</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.0006130000000013069</v>
+        <v>0.0002044000000012147</v>
       </c>
     </row>
     <row r="34">
@@ -2196,13 +2196,13 @@
         <v>0.1744472254947149</v>
       </c>
       <c r="F34" t="n">
-        <v>25.19101972776527</v>
+        <v>25.19101972776508</v>
       </c>
       <c r="G34" t="n">
-        <v>165.625189825685</v>
+        <v>165.6251898256859</v>
       </c>
       <c r="H34" t="n">
-        <v>7.339836553006384</v>
+        <v>7.339836553006488</v>
       </c>
       <c r="I34" t="n">
         <v>14.58268277756131</v>
@@ -2211,16 +2211,16 @@
         <v>19.92527519173688</v>
       </c>
       <c r="K34" t="n">
-        <v>13.74090894895821</v>
+        <v>13.74090894895818</v>
       </c>
       <c r="L34" t="n">
-        <v>14.45622836843154</v>
+        <v>14.45622836843119</v>
       </c>
       <c r="M34" t="n">
-        <v>0.328261784778149</v>
+        <v>0.3282617847781589</v>
       </c>
       <c r="N34" t="n">
-        <v>0.9879296108830425</v>
+        <v>0.9879296108830646</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0005781999999996401</v>
+        <v>0.0001947999999956096</v>
       </c>
     </row>
     <row r="35">
@@ -2248,13 +2248,13 @@
         <v>0.1594267525540688</v>
       </c>
       <c r="F35" t="n">
-        <v>23.94132733168754</v>
+        <v>23.94132733168706</v>
       </c>
       <c r="G35" t="n">
-        <v>54.43438802561759</v>
+        <v>54.43438802561491</v>
       </c>
       <c r="H35" t="n">
-        <v>4.433209259541686</v>
+        <v>4.433209259541746</v>
       </c>
       <c r="I35" t="n">
         <v>13.45458804417072</v>
@@ -2263,16 +2263,16 @@
         <v>35.519141243874</v>
       </c>
       <c r="K35" t="n">
-        <v>12.83708722761969</v>
+        <v>12.8370872276196</v>
       </c>
       <c r="L35" t="n">
-        <v>25.04506581531657</v>
+        <v>25.04506581531632</v>
       </c>
       <c r="M35" t="n">
-        <v>0.3086025752972645</v>
+        <v>0.3086025752972728</v>
       </c>
       <c r="N35" t="n">
-        <v>2.068961115607396</v>
+        <v>2.068961115607344</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.0005913999999975772</v>
+        <v>0.0001917000000020153</v>
       </c>
     </row>
     <row r="36">
@@ -2300,13 +2300,13 @@
         <v>359.8780824496862</v>
       </c>
       <c r="F36" t="n">
-        <v>24.01001028677531</v>
+        <v>24.01001028677568</v>
       </c>
       <c r="G36" t="n">
-        <v>4.654567714663521</v>
+        <v>4.654567714663801</v>
       </c>
       <c r="H36" t="n">
-        <v>7.745828028080792</v>
+        <v>7.745828028080683</v>
       </c>
       <c r="I36" t="n">
         <v>4.025126671418751</v>
@@ -2315,16 +2315,16 @@
         <v>42.21249127823732</v>
       </c>
       <c r="K36" t="n">
-        <v>3.497238348052367</v>
+        <v>3.497238348052405</v>
       </c>
       <c r="L36" t="n">
-        <v>30.71513219453796</v>
+        <v>30.7151321945382</v>
       </c>
       <c r="M36" t="n">
-        <v>0.3165432441681887</v>
+        <v>0.3165432441681825</v>
       </c>
       <c r="N36" t="n">
-        <v>1.576523199657101</v>
+        <v>1.576523199657092</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.0005364000000014357</v>
+        <v>0.0001956999999990217</v>
       </c>
     </row>
     <row r="37">
@@ -2352,13 +2352,13 @@
         <v>0.9448683550439242</v>
       </c>
       <c r="F37" t="n">
-        <v>22.32593113474077</v>
+        <v>22.32593113474007</v>
       </c>
       <c r="G37" t="n">
-        <v>144.8160314232363</v>
+        <v>144.8160314232397</v>
       </c>
       <c r="H37" t="n">
-        <v>4.462417131499386</v>
+        <v>4.462417131499348</v>
       </c>
       <c r="I37" t="n">
         <v>17.81803300985169</v>
@@ -2367,16 +2367,16 @@
         <v>29.87298333979204</v>
       </c>
       <c r="K37" t="n">
-        <v>16.78543260868953</v>
+        <v>16.78543260868939</v>
       </c>
       <c r="L37" t="n">
-        <v>16.01217105777732</v>
+        <v>16.01217105777642</v>
       </c>
       <c r="M37" t="n">
-        <v>0.4850362112355464</v>
+        <v>0.4850362112355944</v>
       </c>
       <c r="N37" t="n">
-        <v>3.425590404516458</v>
+        <v>3.425590404516643</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.000488099999998326</v>
+        <v>0.0002738999999962743</v>
       </c>
     </row>
     <row r="38">
@@ -2404,13 +2404,13 @@
         <v>359.6617933671228</v>
       </c>
       <c r="F38" t="n">
-        <v>24.19874263552489</v>
+        <v>24.19874263552017</v>
       </c>
       <c r="G38" t="n">
-        <v>129.6140981360755</v>
+        <v>129.6140981360806</v>
       </c>
       <c r="H38" t="n">
-        <v>7.746685508848891</v>
+        <v>7.74668550884697</v>
       </c>
       <c r="I38" t="n">
         <v>28.31386058767408</v>
@@ -2419,16 +2419,16 @@
         <v>21.94213719690333</v>
       </c>
       <c r="K38" t="n">
-        <v>27.61376976073739</v>
+        <v>27.61376976073669</v>
       </c>
       <c r="L38" t="n">
-        <v>17.66710992082705</v>
+        <v>17.66710992082256</v>
       </c>
       <c r="M38" t="n">
-        <v>0.3880502033654279</v>
+        <v>0.3880502033656048</v>
       </c>
       <c r="N38" t="n">
-        <v>1.142573875044371</v>
+        <v>1.142573875045226</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.0006076000000021509</v>
+        <v>0.000210799999997846</v>
       </c>
     </row>
     <row r="39">
@@ -2456,13 +2456,13 @@
         <v>0.02723180616874827</v>
       </c>
       <c r="F39" t="n">
-        <v>26.63541333739471</v>
+        <v>26.63541333739542</v>
       </c>
       <c r="G39" t="n">
-        <v>173.6588512375244</v>
+        <v>173.6588512375251</v>
       </c>
       <c r="H39" t="n">
-        <v>8.200399777080229</v>
+        <v>8.200399777081028</v>
       </c>
       <c r="I39" t="n">
         <v>9.715176392221503</v>
@@ -2471,16 +2471,16 @@
         <v>17.50763382333646</v>
       </c>
       <c r="K39" t="n">
-        <v>9.05799313114245</v>
+        <v>9.057993131142602</v>
       </c>
       <c r="L39" t="n">
-        <v>14.41858021576592</v>
+        <v>14.41858021576566</v>
       </c>
       <c r="M39" t="n">
-        <v>0.3009371980331159</v>
+        <v>0.300937198033102</v>
       </c>
       <c r="N39" t="n">
-        <v>0.6571882772093597</v>
+        <v>0.6571882772091313</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.000575200000000109</v>
+        <v>0.0002033999999966341</v>
       </c>
     </row>
     <row r="40">
@@ -2508,13 +2508,13 @@
         <v>359.4956471759416</v>
       </c>
       <c r="F40" t="n">
-        <v>22.00843549750665</v>
+        <v>22.00843549750371</v>
       </c>
       <c r="G40" t="n">
-        <v>64.89086838045615</v>
+        <v>64.89086838045533</v>
       </c>
       <c r="H40" t="n">
-        <v>9.692835905235842</v>
+        <v>9.6928359052341</v>
       </c>
       <c r="I40" t="n">
         <v>25.99804240757942</v>
@@ -2523,16 +2523,16 @@
         <v>36.76281015298541</v>
       </c>
       <c r="K40" t="n">
-        <v>25.31864215695138</v>
+        <v>25.31864215695101</v>
       </c>
       <c r="L40" t="n">
-        <v>26.91200803328388</v>
+        <v>26.91200803327972</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4152512490509966</v>
+        <v>0.4152512490511135</v>
       </c>
       <c r="N40" t="n">
-        <v>1.405945208267435</v>
+        <v>1.405945208268065</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.0009489999999985343</v>
+        <v>0.0001906000000033714</v>
       </c>
     </row>
     <row r="41">
@@ -2560,13 +2560,13 @@
         <v>359.297580216989</v>
       </c>
       <c r="F41" t="n">
-        <v>22.40044002707764</v>
+        <v>22.40044002706375</v>
       </c>
       <c r="G41" t="n">
-        <v>91.32451191554711</v>
+        <v>91.32451191554777</v>
       </c>
       <c r="H41" t="n">
-        <v>9.346186326901581</v>
+        <v>9.346186326893598</v>
       </c>
       <c r="I41" t="n">
         <v>32.60101457491432</v>
@@ -2575,16 +2575,16 @@
         <v>29.87603008831807</v>
       </c>
       <c r="K41" t="n">
-        <v>31.80721434282074</v>
+        <v>31.80721434281892</v>
       </c>
       <c r="L41" t="n">
-        <v>22.97310462634234</v>
+        <v>22.97310462632566</v>
       </c>
       <c r="M41" t="n">
-        <v>0.4574044776460253</v>
+        <v>0.4574044776466333</v>
       </c>
       <c r="N41" t="n">
-        <v>1.403305608181718</v>
+        <v>1.403305608184674</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.0005791999999971154</v>
+        <v>0.0002385000000018067</v>
       </c>
     </row>
     <row r="42">
@@ -2612,13 +2612,13 @@
         <v>0.3037738486056159</v>
       </c>
       <c r="F42" t="n">
-        <v>25.29232711270609</v>
+        <v>25.29232711270654</v>
       </c>
       <c r="G42" t="n">
-        <v>135.2943056942548</v>
+        <v>135.2943056942598</v>
       </c>
       <c r="H42" t="n">
-        <v>2.657098789064821</v>
+        <v>2.657098789065093</v>
       </c>
       <c r="I42" t="n">
         <v>10.64650715668175</v>
@@ -2627,16 +2627,16 @@
         <v>29.14275992229884</v>
       </c>
       <c r="K42" t="n">
-        <v>9.860616268700781</v>
+        <v>9.860616268700857</v>
       </c>
       <c r="L42" t="n">
-        <v>20.71545856830225</v>
+        <v>20.71545856830228</v>
       </c>
       <c r="M42" t="n">
-        <v>0.3211812016948312</v>
+        <v>0.3211812016948243</v>
       </c>
       <c r="N42" t="n">
-        <v>2.913411242888324</v>
+        <v>2.913411242888242</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.0006439000000000306</v>
+        <v>0.0002807999999987487</v>
       </c>
     </row>
     <row r="43">
@@ -2664,13 +2664,13 @@
         <v>0.1353561615336547</v>
       </c>
       <c r="F43" t="n">
-        <v>25.25988395740294</v>
+        <v>25.25988395740369</v>
       </c>
       <c r="G43" t="n">
-        <v>121.0905066835154</v>
+        <v>121.0905066835239</v>
       </c>
       <c r="H43" t="n">
-        <v>1.460100821682438</v>
+        <v>1.460100821682656</v>
       </c>
       <c r="I43" t="n">
         <v>7.857823052148743</v>
@@ -2679,16 +2679,16 @@
         <v>30.6778780234648</v>
       </c>
       <c r="K43" t="n">
-        <v>7.159341791805223</v>
+        <v>7.159341791805324</v>
       </c>
       <c r="L43" t="n">
-        <v>21.90949044405156</v>
+        <v>21.90949044405196</v>
       </c>
       <c r="M43" t="n">
-        <v>0.3139779807123052</v>
+        <v>0.3139779807122891</v>
       </c>
       <c r="N43" t="n">
-        <v>4.021766837949556</v>
+        <v>4.021766837949565</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.0003310000000027458</v>
+        <v>0.0002320000000040068</v>
       </c>
     </row>
     <row r="44">
@@ -2716,13 +2716,13 @@
         <v>359.7516429234944</v>
       </c>
       <c r="F44" t="n">
-        <v>22.42186749780641</v>
+        <v>22.42186749780156</v>
       </c>
       <c r="G44" t="n">
-        <v>65.5282973108669</v>
+        <v>65.52829731086557</v>
       </c>
       <c r="H44" t="n">
-        <v>10.2000180244393</v>
+        <v>10.2000180244364</v>
       </c>
       <c r="I44" t="n">
         <v>26.73093662596029</v>
@@ -2731,16 +2731,16 @@
         <v>38.09464111448521</v>
       </c>
       <c r="K44" t="n">
-        <v>26.15061500868895</v>
+        <v>26.15061500868836</v>
       </c>
       <c r="L44" t="n">
-        <v>27.7123194621334</v>
+        <v>27.71231946212655</v>
       </c>
       <c r="M44" t="n">
-        <v>0.3510966921617759</v>
+        <v>0.3510966921619361</v>
       </c>
       <c r="N44" t="n">
-        <v>1.376754207031791</v>
+        <v>1.376754207032771</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.0006008999999949083</v>
+        <v>0.0002095999999980336</v>
       </c>
     </row>
     <row r="45">
@@ -2768,13 +2768,13 @@
         <v>359.8713000373277</v>
       </c>
       <c r="F45" t="n">
-        <v>23.13240110242259</v>
+        <v>23.1324011024229</v>
       </c>
       <c r="G45" t="n">
-        <v>17.50974742783965</v>
+        <v>17.50974742783913</v>
       </c>
       <c r="H45" t="n">
-        <v>7.343769244325838</v>
+        <v>7.343769244326563</v>
       </c>
       <c r="I45" t="n">
         <v>8.101473937905466</v>
@@ -2783,16 +2783,16 @@
         <v>39.34753971841504</v>
       </c>
       <c r="K45" t="n">
-        <v>7.426931898260406</v>
+        <v>7.426931898260469</v>
       </c>
       <c r="L45" t="n">
-        <v>29.16486020416364</v>
+        <v>29.16486020416481</v>
       </c>
       <c r="M45" t="n">
-        <v>0.3257491191984617</v>
+        <v>0.3257491191984421</v>
       </c>
       <c r="N45" t="n">
-        <v>1.399004120580018</v>
+        <v>1.399004120579791</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.0004855999999975324</v>
+        <v>0.0002382999999994695</v>
       </c>
     </row>
     <row r="46">
@@ -2820,13 +2820,13 @@
         <v>0.3753073586279415</v>
       </c>
       <c r="F46" t="n">
-        <v>26.7582603518114</v>
+        <v>26.75826035181261</v>
       </c>
       <c r="G46" t="n">
-        <v>173.3930330318527</v>
+        <v>173.3930330318522</v>
       </c>
       <c r="H46" t="n">
-        <v>6.954969931750695</v>
+        <v>6.954969931751235</v>
       </c>
       <c r="I46" t="n">
         <v>9.169296382417432</v>
@@ -2835,16 +2835,16 @@
         <v>23.24401613042153</v>
       </c>
       <c r="K46" t="n">
-        <v>8.277412157239883</v>
+        <v>8.277412157240137</v>
       </c>
       <c r="L46" t="n">
-        <v>16.01764916812563</v>
+        <v>16.01764916812621</v>
       </c>
       <c r="M46" t="n">
-        <v>0.3479668947240251</v>
+        <v>0.3479668947239853</v>
       </c>
       <c r="N46" t="n">
-        <v>2.903060435992724</v>
+        <v>2.903060435992929</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.0005335000000030732</v>
+        <v>0.0004114000000043916</v>
       </c>
     </row>
     <row r="47">
@@ -2872,13 +2872,13 @@
         <v>359.9868126135752</v>
       </c>
       <c r="F47" t="n">
-        <v>26.87866489664754</v>
+        <v>26.87866489664778</v>
       </c>
       <c r="G47" t="n">
-        <v>180.2675855067043</v>
+        <v>180.2675855067044</v>
       </c>
       <c r="H47" t="n">
-        <v>9.37198608408271</v>
+        <v>9.371986084083114</v>
       </c>
       <c r="I47" t="n">
         <v>5.639587406824457</v>
@@ -2890,13 +2890,13 @@
         <v>4.881978905823677</v>
       </c>
       <c r="L47" t="n">
-        <v>13.06343371818543</v>
+        <v>13.06343371818519</v>
       </c>
       <c r="M47" t="n">
-        <v>0.2859363588277952</v>
+        <v>0.2859363588277943</v>
       </c>
       <c r="N47" t="n">
-        <v>0.6055212760202198</v>
+        <v>0.6055212760201429</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.0004052000000029921</v>
+        <v>0.0002481000000003064</v>
       </c>
     </row>
     <row r="48">
@@ -2924,13 +2924,13 @@
         <v>359.7075620800647</v>
       </c>
       <c r="F48" t="n">
-        <v>25.31819126432573</v>
+        <v>25.31819126432548</v>
       </c>
       <c r="G48" t="n">
-        <v>140.5951627804487</v>
+        <v>140.5951627804498</v>
       </c>
       <c r="H48" t="n">
-        <v>8.557150493960421</v>
+        <v>8.557150493960398</v>
       </c>
       <c r="I48" t="n">
         <v>27.70526304933168</v>
@@ -2939,16 +2939,16 @@
         <v>19.73114991147893</v>
       </c>
       <c r="K48" t="n">
-        <v>27.10903296946632</v>
+        <v>27.10903296946636</v>
       </c>
       <c r="L48" t="n">
-        <v>16.58970067395664</v>
+        <v>16.58970067395624</v>
       </c>
       <c r="M48" t="n">
-        <v>0.3435642758195902</v>
+        <v>0.3435642758195985</v>
       </c>
       <c r="N48" t="n">
-        <v>0.9120047868639469</v>
+        <v>0.9120047868639506</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.0003547000000025946</v>
+        <v>0.0002026999999955592</v>
       </c>
     </row>
     <row r="49">
@@ -2976,13 +2976,13 @@
         <v>0.4240047378830676</v>
       </c>
       <c r="F49" t="n">
-        <v>23.87936069254221</v>
+        <v>23.87936069254177</v>
       </c>
       <c r="G49" t="n">
-        <v>25.3878728652083</v>
+        <v>25.38787286520813</v>
       </c>
       <c r="H49" t="n">
-        <v>5.465921060630341</v>
+        <v>5.465921060630126</v>
       </c>
       <c r="I49" t="n">
         <v>9.471004277713373</v>
@@ -2991,16 +2991,16 @@
         <v>44.51408920100896</v>
       </c>
       <c r="K49" t="n">
-        <v>8.697925796849663</v>
+        <v>8.697925796849599</v>
       </c>
       <c r="L49" t="n">
-        <v>27.50432831018735</v>
+        <v>27.50432831018668</v>
       </c>
       <c r="M49" t="n">
-        <v>0.354605512329339</v>
+        <v>0.3546055123293542</v>
       </c>
       <c r="N49" t="n">
-        <v>2.524165549387292</v>
+        <v>2.524165549387364</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0003280000000032146</v>
+        <v>0.0001991999999972904</v>
       </c>
     </row>
     <row r="50">
@@ -3028,13 +3028,13 @@
         <v>0.4968156599642271</v>
       </c>
       <c r="F50" t="n">
-        <v>26.32458937138596</v>
+        <v>26.32458937138604</v>
       </c>
       <c r="G50" t="n">
-        <v>343.0894055164958</v>
+        <v>343.0894055164947</v>
       </c>
       <c r="H50" t="n">
-        <v>1.990123419167296</v>
+        <v>1.990123419167182</v>
       </c>
       <c r="I50" t="n">
         <v>2.710210794565153</v>
@@ -3046,13 +3046,13 @@
         <v>1.551597197500395</v>
       </c>
       <c r="L50" t="n">
-        <v>26.00165500218268</v>
+        <v>26.00165500218261</v>
       </c>
       <c r="M50" t="n">
-        <v>0.3872631238418239</v>
+        <v>0.387263123841824</v>
       </c>
       <c r="N50" t="n">
-        <v>3.606241632456706</v>
+        <v>3.606241632456758</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.0005966999999955647</v>
+        <v>0.0002287000000009698</v>
       </c>
     </row>
     <row r="51">
@@ -3080,13 +3080,13 @@
         <v>0.5215795391032959</v>
       </c>
       <c r="F51" t="n">
-        <v>24.27688774819175</v>
+        <v>24.27688774819209</v>
       </c>
       <c r="G51" t="n">
-        <v>114.5446200036092</v>
+        <v>114.5446200036119</v>
       </c>
       <c r="H51" t="n">
-        <v>2.558843595096895</v>
+        <v>2.558843595096996</v>
       </c>
       <c r="I51" t="n">
         <v>12.45544517658499</v>
@@ -3095,16 +3095,16 @@
         <v>32.33427654125745</v>
       </c>
       <c r="K51" t="n">
-        <v>11.60098634603648</v>
+        <v>11.60098634603654</v>
       </c>
       <c r="L51" t="n">
-        <v>20.80907377034166</v>
+        <v>20.80907377034181</v>
       </c>
       <c r="M51" t="n">
-        <v>0.3199185710559206</v>
+        <v>0.3199185710559132</v>
       </c>
       <c r="N51" t="n">
-        <v>3.744468317648746</v>
+        <v>3.74446831764875</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.0003489999999999327</v>
+        <v>0.0003136999999995282</v>
       </c>
     </row>
     <row r="52">
@@ -3132,13 +3132,13 @@
         <v>0.7801760543418236</v>
       </c>
       <c r="F52" t="n">
-        <v>23.32481631415634</v>
+        <v>23.32481631415859</v>
       </c>
       <c r="G52" t="n">
-        <v>145.8644159374167</v>
+        <v>145.8644159374158</v>
       </c>
       <c r="H52" t="n">
-        <v>4.436151526912217</v>
+        <v>4.436151526912938</v>
       </c>
       <c r="I52" t="n">
         <v>16.32338387411448</v>
@@ -3147,16 +3147,16 @@
         <v>28.65547033479784</v>
       </c>
       <c r="K52" t="n">
-        <v>15.35260438405808</v>
+        <v>15.35260438405858</v>
       </c>
       <c r="L52" t="n">
-        <v>16.90326177425714</v>
+        <v>16.90326177425882</v>
       </c>
       <c r="M52" t="n">
-        <v>0.4006967086630238</v>
+        <v>0.4006967086629286</v>
       </c>
       <c r="N52" t="n">
-        <v>2.913999755181215</v>
+        <v>2.913999755180651</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.0005176999999960685</v>
+        <v>0.0002220000000008326</v>
       </c>
     </row>
     <row r="53">
@@ -3184,13 +3184,13 @@
         <v>0.1452515866743192</v>
       </c>
       <c r="F53" t="n">
-        <v>25.1368214352255</v>
+        <v>25.13682143522617</v>
       </c>
       <c r="G53" t="n">
-        <v>147.1972162759141</v>
+        <v>147.1972162759077</v>
       </c>
       <c r="H53" t="n">
-        <v>3.306149447157021</v>
+        <v>3.306149447156816</v>
       </c>
       <c r="I53" t="n">
         <v>10.7663770508881</v>
@@ -3199,16 +3199,16 @@
         <v>25.60870945161991</v>
       </c>
       <c r="K53" t="n">
-        <v>10.00161504035128</v>
+        <v>10.00161504035142</v>
       </c>
       <c r="L53" t="n">
-        <v>19.48170222855853</v>
+        <v>19.48170222855967</v>
       </c>
       <c r="M53" t="n">
-        <v>0.3040854896038321</v>
+        <v>0.3040854896038059</v>
       </c>
       <c r="N53" t="n">
-        <v>1.39195604136758</v>
+        <v>1.391956041367455</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0005549000000044657</v>
+        <v>0.0002046000000035519</v>
       </c>
     </row>
     <row r="54">
@@ -3236,10 +3236,10 @@
         <v>359.7402620796929</v>
       </c>
       <c r="F54" t="n">
-        <v>25.83868187934517</v>
+        <v>25.83868187934539</v>
       </c>
       <c r="G54" t="n">
-        <v>133.2713749025607</v>
+        <v>133.2713749025589</v>
       </c>
       <c r="H54" t="n">
         <v>1.963872709073854</v>
@@ -3251,16 +3251,16 @@
         <v>24.22727636912567</v>
       </c>
       <c r="K54" t="n">
-        <v>7.303527370551598</v>
+        <v>7.303527370551636</v>
       </c>
       <c r="L54" t="n">
-        <v>21.78341621249533</v>
+        <v>21.78341621249561</v>
       </c>
       <c r="M54" t="n">
-        <v>0.286972629660542</v>
+        <v>0.2869726296605354</v>
       </c>
       <c r="N54" t="n">
-        <v>1.670776242096834</v>
+        <v>1.670776242096851</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.000344299999994746</v>
+        <v>0.0002159000000006017</v>
       </c>
     </row>
     <row r="55">
@@ -3288,13 +3288,13 @@
         <v>359.8970675665747</v>
       </c>
       <c r="F55" t="n">
-        <v>25.05061758209382</v>
+        <v>25.05061758209523</v>
       </c>
       <c r="G55" t="n">
-        <v>155.6247401354882</v>
+        <v>155.6247401354881</v>
       </c>
       <c r="H55" t="n">
-        <v>8.015055836108044</v>
+        <v>8.015055836108731</v>
       </c>
       <c r="I55" t="n">
         <v>21.12954030412948</v>
@@ -3303,16 +3303,16 @@
         <v>18.25980426170813</v>
       </c>
       <c r="K55" t="n">
-        <v>20.43610811831146</v>
+        <v>20.43610811831183</v>
       </c>
       <c r="L55" t="n">
-        <v>14.59186421837021</v>
+        <v>14.59186421837095</v>
       </c>
       <c r="M55" t="n">
-        <v>0.3560019059830235</v>
+        <v>0.3560019059829735</v>
       </c>
       <c r="N55" t="n">
-        <v>1.030264088358313</v>
+        <v>1.030264088357974</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.0008417999999963399</v>
+        <v>0.0002706000000003428</v>
       </c>
     </row>
     <row r="56">
@@ -3340,13 +3340,13 @@
         <v>0.9261053723064553</v>
       </c>
       <c r="F56" t="n">
-        <v>22.47858506916566</v>
+        <v>22.47858506916505</v>
       </c>
       <c r="G56" t="n">
-        <v>131.3504933475034</v>
+        <v>131.3504933475056</v>
       </c>
       <c r="H56" t="n">
-        <v>4.02758280360196</v>
+        <v>4.027582803601837</v>
       </c>
       <c r="I56" t="n">
         <v>18.20214824947928</v>
@@ -3355,16 +3355,16 @@
         <v>31.1326825899254</v>
       </c>
       <c r="K56" t="n">
-        <v>17.20888843454684</v>
+        <v>17.20888843454671</v>
       </c>
       <c r="L56" t="n">
-        <v>17.44730671550595</v>
+        <v>17.44730671550525</v>
       </c>
       <c r="M56" t="n">
-        <v>0.4031966710608968</v>
+        <v>0.4031966710609269</v>
       </c>
       <c r="N56" t="n">
-        <v>3.50561693470903</v>
+        <v>3.505616934709192</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.0009915999999989822</v>
+        <v>0.0002605999999971687</v>
       </c>
     </row>
     <row r="57">
@@ -3392,13 +3392,13 @@
         <v>0.8118655573170027</v>
       </c>
       <c r="F57" t="n">
-        <v>24.70915310751916</v>
+        <v>24.70915310751879</v>
       </c>
       <c r="G57" t="n">
-        <v>41.93087122811055</v>
+        <v>41.93087122811198</v>
       </c>
       <c r="H57" t="n">
-        <v>1.745403953437297</v>
+        <v>1.745403953437133</v>
       </c>
       <c r="I57" t="n">
         <v>8.034645537807528</v>
@@ -3407,16 +3407,16 @@
         <v>44.66670492114711</v>
       </c>
       <c r="K57" t="n">
-        <v>7.039374279603847</v>
+        <v>7.039374279603771</v>
       </c>
       <c r="L57" t="n">
-        <v>23.82811776096132</v>
+        <v>23.82811776096077</v>
       </c>
       <c r="M57" t="n">
-        <v>0.4256230569508074</v>
+        <v>0.4256230569508241</v>
       </c>
       <c r="N57" t="n">
-        <v>3.858010911583361</v>
+        <v>3.858010911583467</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.000679200000000435</v>
+        <v>0.0001978000000022462</v>
       </c>
     </row>
     <row r="58">
@@ -3444,13 +3444,13 @@
         <v>0.5188215877512897</v>
       </c>
       <c r="F58" t="n">
-        <v>28.28744349950126</v>
+        <v>28.28744349950188</v>
       </c>
       <c r="G58" t="n">
-        <v>183.3405846708878</v>
+        <v>183.3405846708877</v>
       </c>
       <c r="H58" t="n">
-        <v>12.05478300102203</v>
+        <v>12.05478300102298</v>
       </c>
       <c r="I58" t="n">
         <v>4.777926150988158</v>
@@ -3459,16 +3459,16 @@
         <v>19.05908889727014</v>
       </c>
       <c r="K58" t="n">
-        <v>2.975510230967784</v>
+        <v>2.975510230967733</v>
       </c>
       <c r="L58" t="n">
-        <v>11.24392091761224</v>
+        <v>11.24392091761172</v>
       </c>
       <c r="M58" t="n">
-        <v>0.4855883455293748</v>
+        <v>0.4855883455293772</v>
       </c>
       <c r="N58" t="n">
-        <v>3.093368098132543</v>
+        <v>3.093368098132937</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.0005868000000006646</v>
+        <v>0.0002001000000007025</v>
       </c>
     </row>
     <row r="59">
@@ -3496,13 +3496,13 @@
         <v>0.06552607867345203</v>
       </c>
       <c r="F59" t="n">
-        <v>24.17529905862303</v>
+        <v>24.17529905862276</v>
       </c>
       <c r="G59" t="n">
-        <v>11.5783247042459</v>
+        <v>11.57832470424587</v>
       </c>
       <c r="H59" t="n">
-        <v>2.919681690344083</v>
+        <v>2.919681690343772</v>
       </c>
       <c r="I59" t="n">
         <v>5.111782853534632</v>
@@ -3511,16 +3511,16 @@
         <v>34.17956701829482</v>
       </c>
       <c r="K59" t="n">
-        <v>4.350613422815983</v>
+        <v>4.35061342281592</v>
       </c>
       <c r="L59" t="n">
-        <v>25.06346465888664</v>
+        <v>25.063464658886</v>
       </c>
       <c r="M59" t="n">
-        <v>0.3537614771056354</v>
+        <v>0.3537614771056489</v>
       </c>
       <c r="N59" t="n">
-        <v>1.972463074137596</v>
+        <v>1.972463074137784</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.0003695000000050186</v>
+        <v>0.0001943000000039774</v>
       </c>
     </row>
     <row r="60">
@@ -3548,13 +3548,13 @@
         <v>0.3800930730872643</v>
       </c>
       <c r="F60" t="n">
-        <v>22.88726877952734</v>
+        <v>22.88726877952584</v>
       </c>
       <c r="G60" t="n">
-        <v>79.75790895749991</v>
+        <v>79.75790895750109</v>
       </c>
       <c r="H60" t="n">
-        <v>4.52236604878459</v>
+        <v>4.522366048784038</v>
       </c>
       <c r="I60" t="n">
         <v>18.21010211320113</v>
@@ -3563,16 +3563,16 @@
         <v>33.19847585386613</v>
       </c>
       <c r="K60" t="n">
-        <v>17.41940016436885</v>
+        <v>17.41940016436859</v>
       </c>
       <c r="L60" t="n">
-        <v>22.25601941802451</v>
+        <v>22.25601941802268</v>
       </c>
       <c r="M60" t="n">
-        <v>0.3151429881266223</v>
+        <v>0.31514298812667</v>
       </c>
       <c r="N60" t="n">
-        <v>2.25436584957243</v>
+        <v>2.25436584957278</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0003585000000043692</v>
+        <v>0.000191499999999678</v>
       </c>
     </row>
     <row r="61">
@@ -3600,13 +3600,13 @@
         <v>0.8346417606973641</v>
       </c>
       <c r="F61" t="n">
-        <v>26.9710336409816</v>
+        <v>26.97103364098201</v>
       </c>
       <c r="G61" t="n">
-        <v>183.2308874891143</v>
+        <v>183.2308874891141</v>
       </c>
       <c r="H61" t="n">
-        <v>11.81567274857263</v>
+        <v>11.81567274857261</v>
       </c>
       <c r="I61" t="n">
         <v>6.732400721077228</v>
@@ -3615,16 +3615,16 @@
         <v>21.82727400816668</v>
       </c>
       <c r="K61" t="n">
-        <v>4.286664187492391</v>
+        <v>4.28666418749262</v>
       </c>
       <c r="L61" t="n">
-        <v>10.22414050570083</v>
+        <v>10.22414050570126</v>
       </c>
       <c r="M61" t="n">
-        <v>0.6316239287994599</v>
+        <v>0.6316239287993992</v>
       </c>
       <c r="N61" t="n">
-        <v>5.455273603149906</v>
+        <v>5.455273603149799</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.002793400000001611</v>
+        <v>0.0002459000000030187</v>
       </c>
     </row>
     <row r="62">
@@ -3652,13 +3652,13 @@
         <v>0.4608854966065385</v>
       </c>
       <c r="F62" t="n">
-        <v>24.71007574602099</v>
+        <v>24.71007574602117</v>
       </c>
       <c r="G62" t="n">
-        <v>132.9651204427234</v>
+        <v>132.9651204427243</v>
       </c>
       <c r="H62" t="n">
-        <v>2.689965604067833</v>
+        <v>2.689965604067905</v>
       </c>
       <c r="I62" t="n">
         <v>11.41155827121607</v>
@@ -3667,16 +3667,16 @@
         <v>31.69457505163562</v>
       </c>
       <c r="K62" t="n">
-        <v>10.62361108019358</v>
+        <v>10.62361108019362</v>
       </c>
       <c r="L62" t="n">
-        <v>20.23981009643573</v>
+        <v>20.23981009643581</v>
       </c>
       <c r="M62" t="n">
-        <v>0.3909592936019293</v>
+        <v>0.3909592936019241</v>
       </c>
       <c r="N62" t="n">
-        <v>3.986975698259491</v>
+        <v>3.98697569825947</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.000510699999999531</v>
+        <v>0.0002002999999959343</v>
       </c>
     </row>
     <row r="63">
@@ -3704,13 +3704,13 @@
         <v>0.2157477757799077</v>
       </c>
       <c r="F63" t="n">
-        <v>25.87020017998926</v>
+        <v>25.87020017998884</v>
       </c>
       <c r="G63" t="n">
-        <v>165.4430735388321</v>
+        <v>165.4430735388335</v>
       </c>
       <c r="H63" t="n">
-        <v>5.960952365738178</v>
+        <v>5.960952365738303</v>
       </c>
       <c r="I63" t="n">
         <v>11.32528329067774</v>
@@ -3719,16 +3719,16 @@
         <v>22.53166860081129</v>
       </c>
       <c r="K63" t="n">
-        <v>10.63270769395225</v>
+        <v>10.63270769395218</v>
       </c>
       <c r="L63" t="n">
-        <v>16.61542264327444</v>
+        <v>16.61542264327381</v>
       </c>
       <c r="M63" t="n">
-        <v>0.3332503577396159</v>
+        <v>0.333250357739635</v>
       </c>
       <c r="N63" t="n">
-        <v>1.415753903683276</v>
+        <v>1.415753903683441</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.0005172000000044363</v>
+        <v>0.0001949000000038836</v>
       </c>
     </row>
     <row r="64">
@@ -3756,13 +3756,13 @@
         <v>0.006162713151847251</v>
       </c>
       <c r="F64" t="n">
-        <v>25.91271100924844</v>
+        <v>25.91271100924864</v>
       </c>
       <c r="G64" t="n">
-        <v>2.880962352808497</v>
+        <v>2.880962352808688</v>
       </c>
       <c r="H64" t="n">
-        <v>4.25660671866708</v>
+        <v>4.256606718666936</v>
       </c>
       <c r="I64" t="n">
         <v>3.462135242408604</v>
@@ -3771,16 +3771,16 @@
         <v>38.03641865270881</v>
       </c>
       <c r="K64" t="n">
-        <v>2.882692359158445</v>
+        <v>2.882692359158458</v>
       </c>
       <c r="L64" t="n">
-        <v>28.43380088665108</v>
+        <v>28.43380088665112</v>
       </c>
       <c r="M64" t="n">
-        <v>0.2842618284998428</v>
+        <v>0.2842618284998406</v>
       </c>
       <c r="N64" t="n">
-        <v>1.945680979252535</v>
+        <v>1.94568097925257</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.0006149000000021942</v>
+        <v>0.0001899000000022966</v>
       </c>
     </row>
     <row r="65">
@@ -3808,13 +3808,13 @@
         <v>1.069489326759043</v>
       </c>
       <c r="F65" t="n">
-        <v>21.70791413865135</v>
+        <v>21.70791413865077</v>
       </c>
       <c r="G65" t="n">
-        <v>146.2369150433108</v>
+        <v>146.2369150433129</v>
       </c>
       <c r="H65" t="n">
-        <v>5.383031283301844</v>
+        <v>5.383031283301755</v>
       </c>
       <c r="I65" t="n">
         <v>21.83479548908128</v>
@@ -3823,16 +3823,16 @@
         <v>27.80920715278775</v>
       </c>
       <c r="K65" t="n">
-        <v>20.63489102394545</v>
+        <v>20.63489102394534</v>
       </c>
       <c r="L65" t="n">
-        <v>14.65797849779412</v>
+        <v>14.65797849779343</v>
       </c>
       <c r="M65" t="n">
-        <v>0.4829502931134294</v>
+        <v>0.4829502931134689</v>
       </c>
       <c r="N65" t="n">
-        <v>3.015998531395207</v>
+        <v>3.015998531395358</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.000491799999998932</v>
+        <v>0.0001885000000001469</v>
       </c>
     </row>
     <row r="66">
@@ -3860,13 +3860,13 @@
         <v>359.4498385303842</v>
       </c>
       <c r="F66" t="n">
-        <v>22.2373466149678</v>
+        <v>22.23734661497085</v>
       </c>
       <c r="G66" t="n">
-        <v>59.15900865592888</v>
+        <v>59.15900865593012</v>
       </c>
       <c r="H66" t="n">
-        <v>7.751428640673645</v>
+        <v>7.751428640675111</v>
       </c>
       <c r="I66" t="n">
         <v>20.8613366628729</v>
@@ -3875,16 +3875,16 @@
         <v>33.97314475533167</v>
       </c>
       <c r="K66" t="n">
-        <v>20.13807012686793</v>
+        <v>20.13807012686835</v>
       </c>
       <c r="L66" t="n">
-        <v>25.9766124276034</v>
+        <v>25.97661242760748</v>
       </c>
       <c r="M66" t="n">
-        <v>0.4610734072203867</v>
+        <v>0.4610734072202553</v>
       </c>
       <c r="N66" t="n">
-        <v>1.323720500812725</v>
+        <v>1.32372050081202</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.0005020000000044433</v>
+        <v>0.0002430000000046562</v>
       </c>
     </row>
     <row r="67">
@@ -3912,13 +3912,13 @@
         <v>0.4168324115663374</v>
       </c>
       <c r="F67" t="n">
-        <v>26.19024888685805</v>
+        <v>26.19024888685801</v>
       </c>
       <c r="G67" t="n">
-        <v>167.3696118433469</v>
+        <v>167.3696118433477</v>
       </c>
       <c r="H67" t="n">
-        <v>2.975604126064454</v>
+        <v>2.975604126064542</v>
       </c>
       <c r="I67" t="n">
         <v>6.987251659285303</v>
@@ -3927,16 +3927,16 @@
         <v>30.74521447866422</v>
       </c>
       <c r="K67" t="n">
-        <v>6.085576172808814</v>
+        <v>6.085576172808788</v>
       </c>
       <c r="L67" t="n">
-        <v>20.20272575786215</v>
+        <v>20.202725757862</v>
       </c>
       <c r="M67" t="n">
-        <v>0.3362911647007825</v>
+        <v>0.3362911647007857</v>
       </c>
       <c r="N67" t="n">
-        <v>4.294298991040655</v>
+        <v>4.294298991040624</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0003856000000013182</v>
+        <v>0.0001904000000010342</v>
       </c>
     </row>
     <row r="68">
@@ -3964,13 +3964,13 @@
         <v>359.2921928179678</v>
       </c>
       <c r="F68" t="n">
-        <v>21.67502668016628</v>
+        <v>21.67502668016633</v>
       </c>
       <c r="G68" t="n">
-        <v>13.13910688829736</v>
+        <v>13.13910688829728</v>
       </c>
       <c r="H68" t="n">
-        <v>7.545746056646935</v>
+        <v>7.545746056647094</v>
       </c>
       <c r="I68" t="n">
         <v>6.619109501712943</v>
@@ -3979,16 +3979,16 @@
         <v>32.48901841149885</v>
       </c>
       <c r="K68" t="n">
-        <v>6.06353291941592</v>
+        <v>6.063532919415932</v>
       </c>
       <c r="L68" t="n">
-        <v>28.03168455619329</v>
+        <v>28.03168455619352</v>
       </c>
       <c r="M68" t="n">
-        <v>0.3770693756196467</v>
+        <v>0.3770693756196426</v>
       </c>
       <c r="N68" t="n">
-        <v>2.33040379711248</v>
+        <v>2.330403797112557</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.0005565000000018472</v>
+        <v>0.0002169999999992456</v>
       </c>
     </row>
     <row r="69">
@@ -4016,13 +4016,13 @@
         <v>359.4357389238899</v>
       </c>
       <c r="F69" t="n">
-        <v>22.58546385600225</v>
+        <v>22.58546385599913</v>
       </c>
       <c r="G69" t="n">
-        <v>92.6004262291586</v>
+        <v>92.6004262291585</v>
       </c>
       <c r="H69" t="n">
-        <v>9.841630831546725</v>
+        <v>9.841630831544897</v>
       </c>
       <c r="I69" t="n">
         <v>34.07554230545824</v>
@@ -4031,16 +4031,16 @@
         <v>30.29280265083704</v>
       </c>
       <c r="K69" t="n">
-        <v>33.26139997596218</v>
+        <v>33.26139997596177</v>
       </c>
       <c r="L69" t="n">
-        <v>23.23931696319603</v>
+        <v>23.23931696319233</v>
       </c>
       <c r="M69" t="n">
-        <v>0.4203957731516531</v>
+        <v>0.4203957731517765</v>
       </c>
       <c r="N69" t="n">
-        <v>1.38387144143808</v>
+        <v>1.383871441438728</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.0003372999999982085</v>
+        <v>0.0001892999999952849</v>
       </c>
     </row>
     <row r="70">
@@ -4068,13 +4068,13 @@
         <v>0.4722381821858267</v>
       </c>
       <c r="F70" t="n">
-        <v>25.7510973174683</v>
+        <v>25.75109731746866</v>
       </c>
       <c r="G70" t="n">
-        <v>169.0295228238681</v>
+        <v>169.0295228238689</v>
       </c>
       <c r="H70" t="n">
-        <v>3.870534680652746</v>
+        <v>3.870534680653061</v>
       </c>
       <c r="I70" t="n">
         <v>7.978481920009612</v>
@@ -4083,16 +4083,16 @@
         <v>30.5774947170148</v>
       </c>
       <c r="K70" t="n">
-        <v>6.957368691551057</v>
+        <v>6.957368691551108</v>
       </c>
       <c r="L70" t="n">
-        <v>18.7118815809394</v>
+        <v>18.71188158093938</v>
       </c>
       <c r="M70" t="n">
-        <v>0.3650549191823475</v>
+        <v>0.3650549191823401</v>
       </c>
       <c r="N70" t="n">
-        <v>4.209295210479024</v>
+        <v>4.209295210479262</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.000548899999998298</v>
+        <v>0.0001986999999985528</v>
       </c>
     </row>
     <row r="71">
@@ -4120,31 +4120,31 @@
         <v>359.5422464507259</v>
       </c>
       <c r="F71" t="n">
-        <v>21.43379816718852</v>
+        <v>21.43379816718796</v>
       </c>
       <c r="G71" t="n">
-        <v>46.98749444784583</v>
+        <v>46.98749444784588</v>
       </c>
       <c r="H71" t="n">
-        <v>9.576914796047346</v>
+        <v>9.576914796046928</v>
       </c>
       <c r="I71" t="n">
-        <v>20.1658829375731</v>
+        <v>20.16588293757309</v>
       </c>
       <c r="J71" t="n">
         <v>38.87559435981993</v>
       </c>
       <c r="K71" t="n">
-        <v>19.42919210825813</v>
+        <v>19.42919210825806</v>
       </c>
       <c r="L71" t="n">
-        <v>28.26596775398073</v>
+        <v>28.26596775397976</v>
       </c>
       <c r="M71" t="n">
-        <v>0.4017197879009506</v>
+        <v>0.4017197879009741</v>
       </c>
       <c r="N71" t="n">
-        <v>1.413548160014359</v>
+        <v>1.413548160014496</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.0010027000000008</v>
+        <v>0.0002429999999975507</v>
       </c>
     </row>
     <row r="72">
@@ -4172,13 +4172,13 @@
         <v>359.574501295849</v>
       </c>
       <c r="F72" t="n">
-        <v>26.29507027782713</v>
+        <v>26.29507027782639</v>
       </c>
       <c r="G72" t="n">
         <v>165.0472193033181</v>
       </c>
       <c r="H72" t="n">
-        <v>10.94792456867795</v>
+        <v>10.94792456867749</v>
       </c>
       <c r="I72" t="n">
         <v>22.50110910593897</v>
@@ -4187,16 +4187,16 @@
         <v>12.59736678041878</v>
       </c>
       <c r="K72" t="n">
-        <v>21.67012371822165</v>
+        <v>21.67012371822141</v>
       </c>
       <c r="L72" t="n">
-        <v>11.8207539501018</v>
+        <v>11.82075395010156</v>
       </c>
       <c r="M72" t="n">
-        <v>0.3520504342944044</v>
+        <v>0.3520504342944345</v>
       </c>
       <c r="N72" t="n">
-        <v>0.8259341063943919</v>
+        <v>0.8259341063945727</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.0004326000000034469</v>
+        <v>0.0001932999999993967</v>
       </c>
     </row>
     <row r="73">
@@ -4224,13 +4224,13 @@
         <v>0.2153015748648967</v>
       </c>
       <c r="F73" t="n">
-        <v>24.72824080838051</v>
+        <v>24.72824080837976</v>
       </c>
       <c r="G73" t="n">
-        <v>55.15488877535072</v>
+        <v>55.15488877535672</v>
       </c>
       <c r="H73" t="n">
-        <v>2.742011803317807</v>
+        <v>2.742011803317328</v>
       </c>
       <c r="I73" t="n">
         <v>10.06238009975766</v>
@@ -4239,16 +4239,16 @@
         <v>35.58374545764129</v>
       </c>
       <c r="K73" t="n">
-        <v>9.381437900146041</v>
+        <v>9.381437900145928</v>
       </c>
       <c r="L73" t="n">
-        <v>24.31695319937404</v>
+        <v>24.31695319937265</v>
       </c>
       <c r="M73" t="n">
-        <v>0.3206042630629691</v>
+        <v>0.3206042630629978</v>
       </c>
       <c r="N73" t="n">
-        <v>2.844381410675864</v>
+        <v>2.844381410676264</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.0003185999999999467</v>
+        <v>0.0001847999999995409</v>
       </c>
     </row>
     <row r="74">
@@ -4276,13 +4276,13 @@
         <v>359.8407272504671</v>
       </c>
       <c r="F74" t="n">
-        <v>23.03870962129037</v>
+        <v>23.03870962129027</v>
       </c>
       <c r="G74" t="n">
-        <v>16.29829232017094</v>
+        <v>16.29829232017067</v>
       </c>
       <c r="H74" t="n">
-        <v>8.073734513887736</v>
+        <v>8.073734513887883</v>
       </c>
       <c r="I74" t="n">
         <v>7.949461920862264</v>
@@ -4291,16 +4291,16 @@
         <v>40.47776009458681</v>
       </c>
       <c r="K74" t="n">
-        <v>7.334078071793778</v>
+        <v>7.334078071793765</v>
       </c>
       <c r="L74" t="n">
-        <v>29.96656055631927</v>
+        <v>29.96656055631935</v>
       </c>
       <c r="M74" t="n">
-        <v>0.3429899887489548</v>
+        <v>0.3429899887489545</v>
       </c>
       <c r="N74" t="n">
-        <v>1.359281748692208</v>
+        <v>1.359281748692185</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.0003714000000059059</v>
+        <v>0.0001886999999953787</v>
       </c>
     </row>
     <row r="75">
@@ -4328,13 +4328,13 @@
         <v>359.711593474345</v>
       </c>
       <c r="F75" t="n">
-        <v>25.22580556426209</v>
+        <v>25.22580556426298</v>
       </c>
       <c r="G75" t="n">
-        <v>112.9823203354311</v>
+        <v>112.9823203354293</v>
       </c>
       <c r="H75" t="n">
-        <v>7.628388415454331</v>
+        <v>7.628388415454699</v>
       </c>
       <c r="I75" t="n">
         <v>26.91838834236455</v>
@@ -4343,16 +4343,16 @@
         <v>25.19117466107735</v>
       </c>
       <c r="K75" t="n">
-        <v>26.45289608917336</v>
+        <v>26.45289608917344</v>
       </c>
       <c r="L75" t="n">
-        <v>21.26094757197094</v>
+        <v>21.26094757197203</v>
       </c>
       <c r="M75" t="n">
-        <v>0.3041318498564209</v>
+        <v>0.3041318498563956</v>
       </c>
       <c r="N75" t="n">
-        <v>0.9287226993161563</v>
+        <v>0.9287226993160089</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.0003306999999992399</v>
+        <v>0.0001838000000020656</v>
       </c>
     </row>
     <row r="76">
@@ -4380,13 +4380,13 @@
         <v>359.6958272530962</v>
       </c>
       <c r="F76" t="n">
-        <v>22.74933140015396</v>
+        <v>22.74933140015239</v>
       </c>
       <c r="G76" t="n">
-        <v>33.40354176442644</v>
+        <v>33.40354176442563</v>
       </c>
       <c r="H76" t="n">
-        <v>9.223994533749094</v>
+        <v>9.223994533748263</v>
       </c>
       <c r="I76" t="n">
         <v>14.26388074475133</v>
@@ -4395,16 +4395,16 @@
         <v>40.62758235916512</v>
       </c>
       <c r="K76" t="n">
-        <v>13.66876633580657</v>
+        <v>13.66876633580637</v>
       </c>
       <c r="L76" t="n">
-        <v>30.22917850557725</v>
+        <v>30.22917850557484</v>
       </c>
       <c r="M76" t="n">
-        <v>0.322294265989002</v>
+        <v>0.3222942659890492</v>
       </c>
       <c r="N76" t="n">
-        <v>1.292680871601186</v>
+        <v>1.292680871601521</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0003372000000041453</v>
+        <v>0.0002434999999962884</v>
       </c>
     </row>
     <row r="77">
@@ -4432,13 +4432,13 @@
         <v>0.3547510669880397</v>
       </c>
       <c r="F77" t="n">
-        <v>25.49303228216944</v>
+        <v>25.49303228216982</v>
       </c>
       <c r="G77" t="n">
-        <v>154.570075119527</v>
+        <v>154.5700751195257</v>
       </c>
       <c r="H77" t="n">
-        <v>4.423149128626182</v>
+        <v>4.423149128626186</v>
       </c>
       <c r="I77" t="n">
         <v>12.00268982686304</v>
@@ -4447,16 +4447,16 @@
         <v>26.99609284033786</v>
       </c>
       <c r="K77" t="n">
-        <v>11.28238345045662</v>
+        <v>11.2823834504567</v>
       </c>
       <c r="L77" t="n">
-        <v>18.43900318188615</v>
+        <v>18.43900318188659</v>
       </c>
       <c r="M77" t="n">
-        <v>0.336587161908207</v>
+        <v>0.3365871619081923</v>
       </c>
       <c r="N77" t="n">
-        <v>2.428825195082253</v>
+        <v>2.428825195082175</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.0003363000000007332</v>
+        <v>0.0002160999999958335</v>
       </c>
     </row>
     <row r="78">
@@ -4484,13 +4484,13 @@
         <v>359.5298493446405</v>
       </c>
       <c r="F78" t="n">
-        <v>22.189000737921</v>
+        <v>22.18900073792091</v>
       </c>
       <c r="G78" t="n">
-        <v>51.1500200031286</v>
+        <v>51.15002000312924</v>
       </c>
       <c r="H78" t="n">
-        <v>9.749663813875701</v>
+        <v>9.749663813875459</v>
       </c>
       <c r="I78" t="n">
         <v>21.14464081260298</v>
@@ -4502,13 +4502,13 @@
         <v>20.57163267548864</v>
       </c>
       <c r="L78" t="n">
-        <v>28.74373813296216</v>
+        <v>28.74373813296175</v>
       </c>
       <c r="M78" t="n">
-        <v>0.3694775067797157</v>
+        <v>0.3694775067797252</v>
       </c>
       <c r="N78" t="n">
-        <v>1.288767019749075</v>
+        <v>1.288767019749124</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.002410699999998656</v>
+        <v>0.0001889000000048213</v>
       </c>
     </row>
     <row r="79">
@@ -4536,13 +4536,13 @@
         <v>359.8877775739622</v>
       </c>
       <c r="F79" t="n">
-        <v>26.13323048788656</v>
+        <v>26.13323048788712</v>
       </c>
       <c r="G79" t="n">
-        <v>166.8472472933184</v>
+        <v>166.8472472933181</v>
       </c>
       <c r="H79" t="n">
-        <v>9.135302423149399</v>
+        <v>9.135302423149618</v>
       </c>
       <c r="I79" t="n">
         <v>16.40253997268591</v>
@@ -4551,16 +4551,16 @@
         <v>15.58284333545443</v>
       </c>
       <c r="K79" t="n">
-        <v>15.71653498198897</v>
+        <v>15.71653498198908</v>
       </c>
       <c r="L79" t="n">
-        <v>13.34079617303539</v>
+        <v>13.34079617303573</v>
       </c>
       <c r="M79" t="n">
-        <v>0.3075163632850467</v>
+        <v>0.3075163632850292</v>
       </c>
       <c r="N79" t="n">
-        <v>0.8133393904931305</v>
+        <v>0.8133393904930077</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.0004197999999959734</v>
+        <v>0.0001931000000041649</v>
       </c>
     </row>
     <row r="80">
@@ -4588,13 +4588,13 @@
         <v>359.9389769313877</v>
       </c>
       <c r="F80" t="n">
-        <v>24.74418347479399</v>
+        <v>24.7441834747939</v>
       </c>
       <c r="G80" t="n">
-        <v>7.144207966974964</v>
+        <v>7.144207966974722</v>
       </c>
       <c r="H80" t="n">
-        <v>5.405478154272949</v>
+        <v>5.405478154273389</v>
       </c>
       <c r="I80" t="n">
         <v>4.491261423189937</v>
@@ -4603,16 +4603,16 @@
         <v>40.76138943515837</v>
       </c>
       <c r="K80" t="n">
-        <v>3.907022088363243</v>
+        <v>3.907022088363256</v>
       </c>
       <c r="L80" t="n">
-        <v>28.63056004065983</v>
+        <v>28.63056004066027</v>
       </c>
       <c r="M80" t="n">
-        <v>0.3365328892041818</v>
+        <v>0.336532889204177</v>
       </c>
       <c r="N80" t="n">
-        <v>1.970627956078356</v>
+        <v>1.970627956078244</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.0003029999999952793</v>
+        <v>0.0002052999999975214</v>
       </c>
     </row>
     <row r="81">
@@ -4640,13 +4640,13 @@
         <v>1.658179410385036</v>
       </c>
       <c r="F81" t="n">
-        <v>18.96468960194559</v>
+        <v>18.96468960194723</v>
       </c>
       <c r="G81" t="n">
-        <v>153.4415840398414</v>
+        <v>153.441584039838</v>
       </c>
       <c r="H81" t="n">
-        <v>4.76625738278287</v>
+        <v>4.766257382783361</v>
       </c>
       <c r="I81" t="n">
         <v>22.81548823738686</v>
@@ -4655,16 +4655,16 @@
         <v>29.68449734234962</v>
       </c>
       <c r="K81" t="n">
-        <v>20.85675168238636</v>
+        <v>20.85675168238695</v>
       </c>
       <c r="L81" t="n">
-        <v>12.01147533080091</v>
+        <v>12.01147533080231</v>
       </c>
       <c r="M81" t="n">
-        <v>0.8522317436739519</v>
+        <v>0.8522317436737318</v>
       </c>
       <c r="N81" t="n">
-        <v>4.182150072762793</v>
+        <v>4.182150072762338</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.0003577999999961889</v>
+        <v>0.000407200000005048</v>
       </c>
     </row>
     <row r="82">
@@ -4692,13 +4692,13 @@
         <v>359.0500735319259</v>
       </c>
       <c r="F82" t="n">
-        <v>22.74368009033917</v>
+        <v>22.74368009034096</v>
       </c>
       <c r="G82" t="n">
-        <v>84.35915368833113</v>
+        <v>84.35915368833092</v>
       </c>
       <c r="H82" t="n">
-        <v>8.995160244207355</v>
+        <v>8.995160244208364</v>
       </c>
       <c r="I82" t="n">
         <v>29.25110244472909</v>
@@ -4707,16 +4707,16 @@
         <v>30.30774104493361</v>
       </c>
       <c r="K82" t="n">
-        <v>28.56826831704745</v>
+        <v>28.56826831704768</v>
       </c>
       <c r="L82" t="n">
-        <v>24.12209288704443</v>
+        <v>24.12209288704671</v>
       </c>
       <c r="M82" t="n">
-        <v>0.4817850299043663</v>
+        <v>0.4817850299042836</v>
       </c>
       <c r="N82" t="n">
-        <v>1.276651905978184</v>
+        <v>1.276651905977786</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.0003281999999984464</v>
+        <v>0.0002004999999982715</v>
       </c>
     </row>
     <row r="83">
@@ -4744,13 +4744,13 @@
         <v>0.67995017110934</v>
       </c>
       <c r="F83" t="n">
-        <v>23.9535199188646</v>
+        <v>23.95351991886501</v>
       </c>
       <c r="G83" t="n">
-        <v>117.9168945129984</v>
+        <v>117.9168945130017</v>
       </c>
       <c r="H83" t="n">
-        <v>3.546187557290169</v>
+        <v>3.546187557290329</v>
       </c>
       <c r="I83" t="n">
         <v>15.81851978734653</v>
@@ -4759,16 +4759,16 @@
         <v>32.34144758506243</v>
       </c>
       <c r="K83" t="n">
-        <v>15.08826233627898</v>
+        <v>15.08826233627907</v>
       </c>
       <c r="L83" t="n">
-        <v>20.03376611615536</v>
+        <v>20.03376611615547</v>
       </c>
       <c r="M83" t="n">
-        <v>0.3703615690387592</v>
+        <v>0.3703615690387497</v>
       </c>
       <c r="N83" t="n">
-        <v>3.414972245966306</v>
+        <v>3.414972245966307</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0004901000000003819</v>
+        <v>0.0002075000000019145</v>
       </c>
     </row>
     <row r="84">
@@ -4796,13 +4796,13 @@
         <v>359.579674798622</v>
       </c>
       <c r="F84" t="n">
-        <v>22.05390885035892</v>
+        <v>22.05390885036062</v>
       </c>
       <c r="G84" t="n">
-        <v>43.0675990583331</v>
+        <v>43.06759905833362</v>
       </c>
       <c r="H84" t="n">
-        <v>8.298899648372268</v>
+        <v>8.298899648373226</v>
       </c>
       <c r="I84" t="n">
         <v>17.00129706224179</v>
@@ -4811,16 +4811,16 @@
         <v>37.32399253950987</v>
       </c>
       <c r="K84" t="n">
-        <v>16.29575002183605</v>
+        <v>16.29575002183628</v>
       </c>
       <c r="L84" t="n">
-        <v>27.83030349252284</v>
+        <v>27.83030349252545</v>
       </c>
       <c r="M84" t="n">
-        <v>0.4050450594923518</v>
+        <v>0.4050450594922833</v>
       </c>
       <c r="N84" t="n">
-        <v>1.317836956274928</v>
+        <v>1.317836956274517</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.0003259999999940533</v>
+        <v>0.0002281999999951267</v>
       </c>
     </row>
     <row r="85">
@@ -4848,13 +4848,13 @@
         <v>359.5753435569815</v>
       </c>
       <c r="F85" t="n">
-        <v>22.11233325177933</v>
+        <v>22.11233325177923</v>
       </c>
       <c r="G85" t="n">
-        <v>40.71162155078903</v>
+        <v>40.71162155078822</v>
       </c>
       <c r="H85" t="n">
-        <v>8.64146623953868</v>
+        <v>8.641466239538858</v>
       </c>
       <c r="I85" t="n">
         <v>16.53125344579031</v>
@@ -4863,16 +4863,16 @@
         <v>38.26062136792312</v>
       </c>
       <c r="K85" t="n">
-        <v>15.85698203758736</v>
+        <v>15.85698203758733</v>
       </c>
       <c r="L85" t="n">
-        <v>28.43781428018088</v>
+        <v>28.43781428018104</v>
       </c>
       <c r="M85" t="n">
-        <v>0.3714847098146695</v>
+        <v>0.3714847098146674</v>
       </c>
       <c r="N85" t="n">
-        <v>1.307398057634052</v>
+        <v>1.307398057634032</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.0003366999999983022</v>
+        <v>0.0002110000000001833</v>
       </c>
     </row>
     <row r="86">
@@ -4900,13 +4900,13 @@
         <v>0.06580610098779141</v>
       </c>
       <c r="F86" t="n">
-        <v>24.20444947134576</v>
+        <v>24.20444947134603</v>
       </c>
       <c r="G86" t="n">
-        <v>2.732858398995711</v>
+        <v>2.73285839899594</v>
       </c>
       <c r="H86" t="n">
-        <v>4.432103096204641</v>
+        <v>4.432103096204388</v>
       </c>
       <c r="I86" t="n">
         <v>3.881837099353531</v>
@@ -4915,16 +4915,16 @@
         <v>36.30515202144628</v>
       </c>
       <c r="K86" t="n">
-        <v>3.089287455685096</v>
+        <v>3.089287455685121</v>
       </c>
       <c r="L86" t="n">
-        <v>26.93969570286686</v>
+        <v>26.93969570286682</v>
       </c>
       <c r="M86" t="n">
-        <v>0.367756995520249</v>
+        <v>0.367756995520246</v>
       </c>
       <c r="N86" t="n">
-        <v>1.778241864853798</v>
+        <v>1.778241864853879</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.000324999999996578</v>
+        <v>0.0002477000000027374</v>
       </c>
     </row>
     <row r="87">
@@ -4952,13 +4952,13 @@
         <v>359.9115746394606</v>
       </c>
       <c r="F87" t="n">
-        <v>24.07579838012753</v>
+        <v>24.07579838012703</v>
       </c>
       <c r="G87" t="n">
-        <v>112.8168910152039</v>
+        <v>112.8168910152053</v>
       </c>
       <c r="H87" t="n">
-        <v>6.768035760439366</v>
+        <v>6.768035760439168</v>
       </c>
       <c r="I87" t="n">
         <v>25.87965439725306</v>
@@ -4967,16 +4967,16 @@
         <v>25.95106000866057</v>
       </c>
       <c r="K87" t="n">
-        <v>25.20873690335129</v>
+        <v>25.20873690335126</v>
       </c>
       <c r="L87" t="n">
-        <v>20.23729400491242</v>
+        <v>20.23729400491176</v>
       </c>
       <c r="M87" t="n">
-        <v>0.3352657137941829</v>
+        <v>0.3352657137942008</v>
       </c>
       <c r="N87" t="n">
-        <v>1.205595061065203</v>
+        <v>1.205595061065348</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0003460000000004015</v>
+        <v>0.0001959000000013589</v>
       </c>
     </row>
     <row r="88">
@@ -5004,13 +5004,13 @@
         <v>0.2981428594836462</v>
       </c>
       <c r="F88" t="n">
-        <v>25.15702180250718</v>
+        <v>25.15702180250726</v>
       </c>
       <c r="G88" t="n">
-        <v>118.7060930199226</v>
+        <v>118.7060930199246</v>
       </c>
       <c r="H88" t="n">
-        <v>1.681055700273432</v>
+        <v>1.681055700273466</v>
       </c>
       <c r="I88" t="n">
         <v>8.841399981764416</v>
@@ -5019,16 +5019,16 @@
         <v>33.06978590212768</v>
       </c>
       <c r="K88" t="n">
-        <v>8.10164320208303</v>
+        <v>8.101643202083043</v>
       </c>
       <c r="L88" t="n">
-        <v>21.78885274526707</v>
+        <v>21.78885274526706</v>
       </c>
       <c r="M88" t="n">
-        <v>0.3376737363857111</v>
+        <v>0.3376737363857104</v>
       </c>
       <c r="N88" t="n">
-        <v>4.543212517239538</v>
+        <v>4.543212517239571</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.0003061999999971476</v>
+        <v>0.0001916999999949098</v>
       </c>
     </row>
     <row r="89">
@@ -5056,13 +5056,13 @@
         <v>359.8138122395735</v>
       </c>
       <c r="F89" t="n">
-        <v>23.47072778181331</v>
+        <v>23.4707277818043</v>
       </c>
       <c r="G89" t="n">
-        <v>118.3901804323411</v>
+        <v>118.3901804323442</v>
       </c>
       <c r="H89" t="n">
-        <v>10.68323594863882</v>
+        <v>10.68323594863344</v>
       </c>
       <c r="I89" t="n">
         <v>40.62090861008976</v>
@@ -5071,16 +5071,16 @@
         <v>25.30051964941712</v>
       </c>
       <c r="K89" t="n">
-        <v>39.97305735984152</v>
+        <v>39.97305735984042</v>
       </c>
       <c r="L89" t="n">
-        <v>19.25855347137801</v>
+        <v>19.25855347136913</v>
       </c>
       <c r="M89" t="n">
-        <v>0.3502164633656873</v>
+        <v>0.3502164633659831</v>
       </c>
       <c r="N89" t="n">
-        <v>1.219358125067047</v>
+        <v>1.219358125068918</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.0005080999999975688</v>
+        <v>0.0001889000000048213</v>
       </c>
     </row>
     <row r="90">
@@ -5108,13 +5108,13 @@
         <v>359.9465578479241</v>
       </c>
       <c r="F90" t="n">
-        <v>24.73001133300112</v>
+        <v>24.73001133300082</v>
       </c>
       <c r="G90" t="n">
-        <v>119.5927732819208</v>
+        <v>119.59277328192</v>
       </c>
       <c r="H90" t="n">
-        <v>7.024179940672598</v>
+        <v>7.02417994067246</v>
       </c>
       <c r="I90" t="n">
         <v>25.88603784183202</v>
@@ -5123,16 +5123,16 @@
         <v>25.01898544775609</v>
       </c>
       <c r="K90" t="n">
-        <v>25.27767523238812</v>
+        <v>25.27767523238804</v>
       </c>
       <c r="L90" t="n">
-        <v>19.85196415367611</v>
+        <v>19.85196415367597</v>
       </c>
       <c r="M90" t="n">
-        <v>0.3251977724775675</v>
+        <v>0.325197772477575</v>
       </c>
       <c r="N90" t="n">
-        <v>1.139400474847893</v>
+        <v>1.139400474847943</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.000338600000006295</v>
+        <v>0.0001941000000016402</v>
       </c>
     </row>
     <row r="91">
@@ -5160,13 +5160,13 @@
         <v>0.8468650132735551</v>
       </c>
       <c r="F91" t="n">
-        <v>23.30547974795773</v>
+        <v>23.30547974795677</v>
       </c>
       <c r="G91" t="n">
-        <v>147.3699478772183</v>
+        <v>147.3699478772197</v>
       </c>
       <c r="H91" t="n">
-        <v>4.756562573056471</v>
+        <v>4.756562573056228</v>
       </c>
       <c r="I91" t="n">
         <v>17.15632957635029</v>
@@ -5175,16 +5175,16 @@
         <v>28.66617941202903</v>
       </c>
       <c r="K91" t="n">
-        <v>16.13085470218461</v>
+        <v>16.13085470218441</v>
       </c>
       <c r="L91" t="n">
-        <v>16.53037854561775</v>
+        <v>16.53037854561691</v>
       </c>
       <c r="M91" t="n">
-        <v>0.4100558581576508</v>
+        <v>0.4100558581576945</v>
       </c>
       <c r="N91" t="n">
-        <v>2.938931172406687</v>
+        <v>2.938931172406922</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.0002999999999957481</v>
+        <v>0.0002627000000003932</v>
       </c>
     </row>
     <row r="92">
@@ -5212,13 +5212,13 @@
         <v>0.1122433340996691</v>
       </c>
       <c r="F92" t="n">
-        <v>24.52192641469498</v>
+        <v>24.52192641469513</v>
       </c>
       <c r="G92" t="n">
-        <v>47.26012909460937</v>
+        <v>47.26012909461176</v>
       </c>
       <c r="H92" t="n">
-        <v>1.353772680715444</v>
+        <v>1.353772680715407</v>
       </c>
       <c r="I92" t="n">
         <v>6.799638401444717</v>
@@ -5227,16 +5227,16 @@
         <v>32.8194763419126</v>
       </c>
       <c r="K92" t="n">
-        <v>5.983676301930505</v>
+        <v>5.983676301930517</v>
       </c>
       <c r="L92" t="n">
-        <v>23.13407915696017</v>
+        <v>23.13407915696024</v>
       </c>
       <c r="M92" t="n">
-        <v>0.3471335860785251</v>
+        <v>0.3471335860785217</v>
       </c>
       <c r="N92" t="n">
-        <v>2.996804333742467</v>
+        <v>2.996804333742534</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.0003251999999989152</v>
+        <v>0.0002033000000025709</v>
       </c>
     </row>
     <row r="93">
@@ -5264,13 +5264,13 @@
         <v>0.3030605088673829</v>
       </c>
       <c r="F93" t="n">
-        <v>24.51079129219621</v>
+        <v>24.51079129219645</v>
       </c>
       <c r="G93" t="n">
-        <v>72.27387613266066</v>
+        <v>72.27387613266374</v>
       </c>
       <c r="H93" t="n">
-        <v>2.150360489266773</v>
+        <v>2.150360489266765</v>
       </c>
       <c r="I93" t="n">
         <v>10.12608089519902</v>
@@ -5279,16 +5279,16 @@
         <v>34.65343846802563</v>
       </c>
       <c r="K93" t="n">
-        <v>9.408395982681441</v>
+        <v>9.408395982681492</v>
       </c>
       <c r="L93" t="n">
-        <v>22.98898636088693</v>
+        <v>22.98898636088704</v>
       </c>
       <c r="M93" t="n">
-        <v>0.3149931706106895</v>
+        <v>0.3149931706106843</v>
       </c>
       <c r="N93" t="n">
-        <v>3.369050709844008</v>
+        <v>3.369050709844068</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0002999000000016849</v>
+        <v>0.0001953999999955158</v>
       </c>
     </row>
     <row r="94">
@@ -5316,13 +5316,13 @@
         <v>359.8848503791089</v>
       </c>
       <c r="F94" t="n">
-        <v>26.04699294404834</v>
+        <v>26.04699294404861</v>
       </c>
       <c r="G94" t="n">
-        <v>161.4327516435929</v>
+        <v>161.4327516435916</v>
       </c>
       <c r="H94" t="n">
-        <v>10.76376492187588</v>
+        <v>10.76376492187573</v>
       </c>
       <c r="I94" t="n">
         <v>25.62795621500346</v>
@@ -5331,16 +5331,16 @@
         <v>14.83878058168517</v>
       </c>
       <c r="K94" t="n">
-        <v>25.06167776306557</v>
+        <v>25.06167776306547</v>
       </c>
       <c r="L94" t="n">
-        <v>12.3489855398009</v>
+        <v>12.34898553980147</v>
       </c>
       <c r="M94" t="n">
-        <v>0.2749046830352078</v>
+        <v>0.2749046830352038</v>
       </c>
       <c r="N94" t="n">
-        <v>0.8114279894659104</v>
+        <v>0.8114279894658639</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.0003028000000000475</v>
+        <v>0.0001966000000024337</v>
       </c>
     </row>
     <row r="95">
@@ -5368,13 +5368,13 @@
         <v>359.1849009598281</v>
       </c>
       <c r="F95" t="n">
-        <v>23.89442950079542</v>
+        <v>23.89442950079228</v>
       </c>
       <c r="G95" t="n">
-        <v>99.11417478127457</v>
+        <v>99.11417478127696</v>
       </c>
       <c r="H95" t="n">
-        <v>8.725604173877036</v>
+        <v>8.725604173875364</v>
       </c>
       <c r="I95" t="n">
         <v>30.33422199235522</v>
@@ -5383,16 +5383,16 @@
         <v>26.76193268396159</v>
       </c>
       <c r="K95" t="n">
-        <v>29.65523000054598</v>
+        <v>29.65523000054565</v>
       </c>
       <c r="L95" t="n">
-        <v>22.57381651695368</v>
+        <v>22.57381651694985</v>
       </c>
       <c r="M95" t="n">
-        <v>0.3962378999516367</v>
+        <v>0.3962378999517541</v>
       </c>
       <c r="N95" t="n">
-        <v>1.178216062698547</v>
+        <v>1.178216062699195</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.0005589000000014721</v>
+        <v>0.0001946000000003778</v>
       </c>
     </row>
     <row r="96">
@@ -5420,13 +5420,13 @@
         <v>359.6282733922433</v>
       </c>
       <c r="F96" t="n">
-        <v>24.67973793649453</v>
+        <v>24.67973793649861</v>
       </c>
       <c r="G96" t="n">
-        <v>126.0079612630066</v>
+        <v>126.0079612630047</v>
       </c>
       <c r="H96" t="n">
-        <v>7.964365674278817</v>
+        <v>7.964365674280591</v>
       </c>
       <c r="I96" t="n">
         <v>28.70555251722355</v>
@@ -5435,16 +5435,16 @@
         <v>22.27073467156608</v>
       </c>
       <c r="K96" t="n">
-        <v>27.99456804339022</v>
+        <v>27.99456804339088</v>
       </c>
       <c r="L96" t="n">
-        <v>18.62324449757822</v>
+        <v>18.62324449758183</v>
       </c>
       <c r="M96" t="n">
-        <v>0.3416260246783786</v>
+        <v>0.3416260246782522</v>
       </c>
       <c r="N96" t="n">
-        <v>1.102142522885684</v>
+        <v>1.102142522884866</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.0005063999999990187</v>
+        <v>0.0002399000000039564</v>
       </c>
     </row>
     <row r="97">
@@ -5472,13 +5472,13 @@
         <v>0.3321444497762412</v>
       </c>
       <c r="F97" t="n">
-        <v>25.27630836151906</v>
+        <v>25.27630836151971</v>
       </c>
       <c r="G97" t="n">
-        <v>109.1095618274896</v>
+        <v>109.1095618274732</v>
       </c>
       <c r="H97" t="n">
-        <v>1.800065962325486</v>
+        <v>1.800065962325509</v>
       </c>
       <c r="I97" t="n">
         <v>9.443662727940012</v>
@@ -5487,16 +5487,16 @@
         <v>32.60134686113346</v>
       </c>
       <c r="K97" t="n">
-        <v>8.697049774990726</v>
+        <v>8.697049774990839</v>
       </c>
       <c r="L97" t="n">
-        <v>22.20771553334615</v>
+        <v>22.2077155333474</v>
       </c>
       <c r="M97" t="n">
-        <v>0.3161089628138956</v>
+        <v>0.316108962813869</v>
       </c>
       <c r="N97" t="n">
-        <v>4.065153071502719</v>
+        <v>4.065153071502206</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.000317199999997797</v>
+        <v>0.0001990000000020586</v>
       </c>
     </row>
     <row r="98">
@@ -5524,13 +5524,13 @@
         <v>359.965076112617</v>
       </c>
       <c r="F98" t="n">
-        <v>22.32544721783141</v>
+        <v>22.32544721783189</v>
       </c>
       <c r="G98" t="n">
-        <v>38.05759015197259</v>
+        <v>38.05759015197267</v>
       </c>
       <c r="H98" t="n">
-        <v>8.872868698923142</v>
+        <v>8.872868698923456</v>
       </c>
       <c r="I98" t="n">
         <v>16.00737530966048</v>
@@ -5539,16 +5539,16 @@
         <v>42.05525927522663</v>
       </c>
       <c r="K98" t="n">
-        <v>15.36673203524004</v>
+        <v>15.3667320352401</v>
       </c>
       <c r="L98" t="n">
-        <v>29.13435635513471</v>
+        <v>29.13435635513551</v>
       </c>
       <c r="M98" t="n">
-        <v>0.3398510970801649</v>
+        <v>0.339851097080148</v>
       </c>
       <c r="N98" t="n">
-        <v>1.59264186140569</v>
+        <v>1.592641861405578</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.0003185999999999467</v>
+        <v>0.0001910000000009404</v>
       </c>
     </row>
     <row r="99">
@@ -5576,13 +5576,13 @@
         <v>0.875593875646003</v>
       </c>
       <c r="F99" t="n">
-        <v>21.108160355055</v>
+        <v>21.10816035506073</v>
       </c>
       <c r="G99" t="n">
-        <v>162.3226270333365</v>
+        <v>162.3226270333316</v>
       </c>
       <c r="H99" t="n">
-        <v>10.27700846784341</v>
+        <v>10.27700846784655</v>
       </c>
       <c r="I99" t="n">
         <v>39.03082884889427</v>
@@ -5591,16 +5591,16 @@
         <v>15.53497559712574</v>
       </c>
       <c r="K99" t="n">
-        <v>37.854873839538</v>
+        <v>37.85487383953975</v>
       </c>
       <c r="L99" t="n">
-        <v>8.535356260418633</v>
+        <v>8.535356260421937</v>
       </c>
       <c r="M99" t="n">
-        <v>0.419850155329376</v>
+        <v>0.4198501553289845</v>
       </c>
       <c r="N99" t="n">
-        <v>2.082144164547726</v>
+        <v>2.08214416454628</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.0003145000000017717</v>
+        <v>0.000194400000005146</v>
       </c>
     </row>
     <row r="100">
@@ -5628,13 +5628,13 @@
         <v>359.7631414593671</v>
       </c>
       <c r="F100" t="n">
-        <v>24.11148713973699</v>
+        <v>24.11148713973838</v>
       </c>
       <c r="G100" t="n">
         <v>132.1685234978103</v>
       </c>
       <c r="H100" t="n">
-        <v>7.399024923168995</v>
+        <v>7.399024923169601</v>
       </c>
       <c r="I100" t="n">
         <v>26.96775176704555</v>
@@ -5643,16 +5643,16 @@
         <v>21.92280540344407</v>
       </c>
       <c r="K100" t="n">
-        <v>26.22268085158358</v>
+        <v>26.22268085158384</v>
       </c>
       <c r="L100" t="n">
-        <v>17.3166039408958</v>
+        <v>17.31660394089684</v>
       </c>
       <c r="M100" t="n">
-        <v>0.3688877070112311</v>
+        <v>0.3688877070111842</v>
       </c>
       <c r="N100" t="n">
-        <v>1.159161735344461</v>
+        <v>1.159161735344156</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0002851000000063664</v>
+        <v>0.0003229999999945221</v>
       </c>
     </row>
     <row r="101">
@@ -5680,13 +5680,13 @@
         <v>0.07117942135097972</v>
       </c>
       <c r="F101" t="n">
-        <v>24.43923266947206</v>
+        <v>24.43923266947278</v>
       </c>
       <c r="G101" t="n">
-        <v>128.5446196214325</v>
+        <v>128.5446196214323</v>
       </c>
       <c r="H101" t="n">
-        <v>6.842224591716699</v>
+        <v>6.842224591716988</v>
       </c>
       <c r="I101" t="n">
         <v>25.13702639845252</v>
@@ -5695,16 +5695,16 @@
         <v>24.19989479699868</v>
       </c>
       <c r="K101" t="n">
-        <v>24.52538131679117</v>
+        <v>24.52538131679132</v>
       </c>
       <c r="L101" t="n">
-        <v>18.36337702897724</v>
+        <v>18.36337702897783</v>
       </c>
       <c r="M101" t="n">
-        <v>0.3116077179078293</v>
+        <v>0.3116077179078086</v>
       </c>
       <c r="N101" t="n">
-        <v>1.311921896980633</v>
+        <v>1.311921896980471</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0003087999999991098</v>
+        <v>0.0002435000000033938</v>
       </c>
     </row>
   </sheetData>
